--- a/.tests/PruebasIniciales.xlsx
+++ b/.tests/PruebasIniciales.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="318">
   <si>
     <t>Requerimientos</t>
   </si>
@@ -602,6 +602,15 @@
     <t>⎛ N ⎞⎛  A,B,D,E,G,H,J,K,M  ⎞</t>
   </si>
   <si>
+    <t>⎛ ∅ ⎞⎛  B,C,D,E,F,G,J,K,L,M,N,O  ⎞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.0000</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>https://github.com/Complexum/Proyecto-2025A/blob/main/src/samples/N10A.csv</t>
   </si>
   <si>
@@ -970,7 +979,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1034,12 +1043,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Fira Code"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1138,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -1284,26 +1287,23 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,8 +1619,8 @@
     <col min="4" max="4" style="54" width="21.290714285714284" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="37" width="18.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="5" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="55" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="55" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="54" width="10.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="54" width="9.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="5" width="13.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="5" width="9.005" customWidth="1" bestFit="1"/>
@@ -1646,7 +1646,7 @@
         <v>71</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="10"/>
@@ -1675,19 +1675,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="51" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="29">
         <v>1000000000</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D5" s="38">
         <v>0.47</v>
@@ -1813,7 +1813,7 @@
         <v>137</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G5" s="38">
         <v>0.47</v>
@@ -1843,12 +1843,12 @@
       <c r="A6" s="26"/>
       <c r="B6" s="1"/>
       <c r="C6" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D6" s="38"/>
       <c r="E6" s="10"/>
       <c r="F6" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -1875,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D7" s="10">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>69</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G7" s="38">
         <v>0.01</v>
@@ -1917,12 +1917,12 @@
       <c r="A8" s="26"/>
       <c r="B8" s="1"/>
       <c r="C8" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" s="38"/>
       <c r="E8" s="10"/>
       <c r="F8" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
@@ -1949,10 +1949,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D9" s="10">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>68</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G9" s="10">
         <v>0</v>
@@ -1991,12 +1991,12 @@
       <c r="A10" s="26"/>
       <c r="B10" s="1"/>
       <c r="C10" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D10" s="38"/>
       <c r="E10" s="10"/>
       <c r="F10" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
@@ -2023,10 +2023,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D11" s="38">
         <v>0.01</v>
@@ -2035,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="G11" s="38">
         <v>0.01</v>
@@ -2065,12 +2065,12 @@
       <c r="A12" s="26"/>
       <c r="B12" s="1"/>
       <c r="C12" s="25" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D12" s="38"/>
       <c r="E12" s="10"/>
       <c r="F12" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
@@ -2097,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D13" s="38">
         <v>0.02</v>
@@ -2109,7 +2109,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G13" s="38">
         <v>0.02</v>
@@ -2139,12 +2139,12 @@
       <c r="A14" s="26"/>
       <c r="B14" s="1"/>
       <c r="C14" s="25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D14" s="38"/>
       <c r="E14" s="10"/>
       <c r="F14" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
@@ -2171,10 +2171,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D15" s="10">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G15" s="10">
         <v>0</v>
@@ -2213,12 +2213,12 @@
       <c r="A16" s="26"/>
       <c r="B16" s="1"/>
       <c r="C16" s="25" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="10"/>
       <c r="F16" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G16" s="38"/>
       <c r="H16" s="38"/>
@@ -2245,10 +2245,10 @@
         <v>7</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D17" s="38">
         <v>0.01</v>
@@ -2257,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G17" s="38">
         <v>0.01</v>
@@ -2287,12 +2287,12 @@
       <c r="A18" s="26"/>
       <c r="B18" s="1"/>
       <c r="C18" s="25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="10"/>
       <c r="F18" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
@@ -2319,10 +2319,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D19" s="38">
         <v>0.47</v>
@@ -2331,7 +2331,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G19" s="38">
         <v>0.47</v>
@@ -2361,12 +2361,12 @@
       <c r="A20" s="26"/>
       <c r="B20" s="1"/>
       <c r="C20" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="10"/>
       <c r="F20" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
@@ -2393,19 +2393,19 @@
         <v>9</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="52">
+        <v>223</v>
+      </c>
+      <c r="D21" s="53">
         <v>0</v>
       </c>
       <c r="E21" s="10">
         <v>32</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G21" s="10">
         <v>0</v>
@@ -2435,12 +2435,12 @@
       <c r="A22" s="26"/>
       <c r="B22" s="1"/>
       <c r="C22" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="10"/>
       <c r="F22" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G22" s="38"/>
       <c r="H22" s="38"/>
@@ -2467,10 +2467,10 @@
         <v>10</v>
       </c>
       <c r="B23" s="36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D23" s="38">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>32</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G23" s="10">
         <v>0</v>
@@ -2509,12 +2509,12 @@
       <c r="A24" s="26"/>
       <c r="B24" s="1"/>
       <c r="C24" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="10"/>
       <c r="F24" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
@@ -2541,10 +2541,10 @@
         <f>IF(A5:A24="","",A5:A24+10)</f>
       </c>
       <c r="B25" s="36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D25" s="38">
         <v>0.01</v>
@@ -2553,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G25" s="38">
         <v>0.01</v>
@@ -2583,12 +2583,12 @@
       <c r="A26" s="26"/>
       <c r="B26" s="1"/>
       <c r="C26" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D26" s="38"/>
       <c r="E26" s="10"/>
       <c r="F26" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G26" s="38"/>
       <c r="H26" s="38"/>
@@ -2615,10 +2615,10 @@
         <v>12</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D27" s="38">
         <v>0.02</v>
@@ -2627,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G27" s="38">
         <v>0.02</v>
@@ -2657,12 +2657,12 @@
       <c r="A28" s="26"/>
       <c r="B28" s="1"/>
       <c r="C28" s="25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="10"/>
       <c r="F28" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -2689,10 +2689,10 @@
         <v>13</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D29" s="38">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G29" s="10">
         <v>0</v>
@@ -2731,12 +2731,12 @@
       <c r="A30" s="26"/>
       <c r="B30" s="1"/>
       <c r="C30" s="25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="10"/>
       <c r="F30" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G30" s="38"/>
       <c r="H30" s="38"/>
@@ -2763,10 +2763,10 @@
         <v>14</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D31" s="38">
         <v>0.02</v>
@@ -2775,7 +2775,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G31" s="38">
         <v>0.03</v>
@@ -2805,12 +2805,12 @@
       <c r="A32" s="26"/>
       <c r="B32" s="1"/>
       <c r="C32" s="25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="10"/>
       <c r="F32" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G32" s="38"/>
       <c r="H32" s="38"/>
@@ -2837,10 +2837,10 @@
         <v>15</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D33" s="38">
         <v>0.47</v>
@@ -2849,7 +2849,7 @@
         <v>63</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G33" s="38">
         <v>0.47</v>
@@ -2879,12 +2879,12 @@
       <c r="A34" s="26"/>
       <c r="B34" s="1"/>
       <c r="C34" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="10"/>
       <c r="F34" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
@@ -2911,10 +2911,10 @@
         <v>16</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D35" s="38">
         <v>0</v>
@@ -2923,7 +2923,7 @@
         <v>32</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G35" s="38">
         <v>0.01</v>
@@ -2953,12 +2953,12 @@
       <c r="A36" s="26"/>
       <c r="B36" s="1"/>
       <c r="C36" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="10"/>
       <c r="F36" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
@@ -2985,10 +2985,10 @@
         <v>17</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D37" s="38">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G37" s="10">
         <v>0</v>
@@ -3027,12 +3027,12 @@
       <c r="A38" s="26"/>
       <c r="B38" s="1"/>
       <c r="C38" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="10"/>
       <c r="F38" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
@@ -3059,10 +3059,10 @@
         <v>18</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D39" s="38">
         <v>0.01</v>
@@ -3071,7 +3071,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G39" s="38">
         <v>0.01</v>
@@ -3101,12 +3101,12 @@
       <c r="A40" s="26"/>
       <c r="B40" s="1"/>
       <c r="C40" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="10"/>
       <c r="F40" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
@@ -3133,10 +3133,10 @@
         <v>19</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D41" s="38">
         <v>0.02</v>
@@ -3145,7 +3145,7 @@
         <v>2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G41" s="38">
         <v>0.02</v>
@@ -3175,12 +3175,12 @@
       <c r="A42" s="26"/>
       <c r="B42" s="1"/>
       <c r="C42" s="25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="10"/>
       <c r="F42" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
@@ -3207,10 +3207,10 @@
         <v>20</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D43" s="38">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G43" s="10">
         <v>0</v>
@@ -3249,12 +3249,12 @@
       <c r="A44" s="26"/>
       <c r="B44" s="1"/>
       <c r="C44" s="25" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="10"/>
       <c r="F44" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
@@ -3281,10 +3281,10 @@
         <f>IF(A5:A24="","",A5:A24+20)</f>
       </c>
       <c r="B45" s="36" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D45" s="38">
         <v>0.01</v>
@@ -3293,7 +3293,7 @@
         <v>8</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G45" s="38">
         <v>0.01</v>
@@ -3323,12 +3323,12 @@
       <c r="A46" s="26"/>
       <c r="B46" s="1"/>
       <c r="C46" s="25" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D46" s="38"/>
       <c r="E46" s="10"/>
       <c r="F46" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
@@ -3355,10 +3355,10 @@
         <v>22</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D47" s="38">
         <v>0.47</v>
@@ -3367,7 +3367,7 @@
         <v>31</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G47" s="38">
         <v>0.47</v>
@@ -3397,12 +3397,12 @@
       <c r="A48" s="26"/>
       <c r="B48" s="1"/>
       <c r="C48" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D48" s="38"/>
       <c r="E48" s="10"/>
       <c r="F48" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
@@ -3429,10 +3429,10 @@
         <v>23</v>
       </c>
       <c r="B49" s="36" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D49" s="38">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>16</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
@@ -3471,12 +3471,12 @@
       <c r="A50" s="26"/>
       <c r="B50" s="1"/>
       <c r="C50" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="10"/>
       <c r="F50" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
@@ -3503,10 +3503,10 @@
         <v>24</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D51" s="38">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>17</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G51" s="10">
         <v>0</v>
@@ -3545,12 +3545,12 @@
       <c r="A52" s="26"/>
       <c r="B52" s="1"/>
       <c r="C52" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D52" s="38"/>
       <c r="E52" s="10"/>
       <c r="F52" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -3577,10 +3577,10 @@
         <v>25</v>
       </c>
       <c r="B53" s="36" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D53" s="38">
         <v>0.01</v>
@@ -3589,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G53" s="38">
         <v>0.01</v>
@@ -3619,12 +3619,12 @@
       <c r="A54" s="26"/>
       <c r="B54" s="1"/>
       <c r="C54" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="10"/>
       <c r="F54" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
@@ -3651,10 +3651,10 @@
         <v>26</v>
       </c>
       <c r="B55" s="36" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D55" s="38">
         <v>0.02</v>
@@ -3663,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G55" s="38">
         <v>0.02</v>
@@ -3693,12 +3693,12 @@
       <c r="A56" s="26"/>
       <c r="B56" s="1"/>
       <c r="C56" s="25" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="10"/>
       <c r="F56" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
@@ -3725,10 +3725,10 @@
         <v>27</v>
       </c>
       <c r="B57" s="36" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D57" s="38">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G57" s="10">
         <v>0</v>
@@ -3767,12 +3767,12 @@
       <c r="A58" s="26"/>
       <c r="B58" s="1"/>
       <c r="C58" s="25" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D58" s="38"/>
       <c r="E58" s="10"/>
       <c r="F58" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
@@ -3799,10 +3799,10 @@
         <v>28</v>
       </c>
       <c r="B59" s="36" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D59" s="38">
         <v>0.02</v>
@@ -3811,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G59" s="38">
         <v>0.03</v>
@@ -3841,12 +3841,12 @@
       <c r="A60" s="26"/>
       <c r="B60" s="1"/>
       <c r="C60" s="25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D60" s="38"/>
       <c r="E60" s="10"/>
       <c r="F60" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
@@ -3873,10 +3873,10 @@
         <v>29</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D61" s="38">
         <v>0.47</v>
@@ -3885,7 +3885,7 @@
         <v>4</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G61" s="38">
         <v>0.48</v>
@@ -3915,12 +3915,12 @@
       <c r="A62" s="26"/>
       <c r="B62" s="1"/>
       <c r="C62" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D62" s="38"/>
       <c r="E62" s="10"/>
       <c r="F62" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
@@ -3947,10 +3947,10 @@
         <v>30</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D63" s="38">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G63" s="10">
         <v>0</v>
@@ -3989,12 +3989,12 @@
       <c r="A64" s="26"/>
       <c r="B64" s="1"/>
       <c r="C64" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D64" s="38"/>
       <c r="E64" s="10"/>
       <c r="F64" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
@@ -4021,10 +4021,10 @@
         <f>IF(A5:A24="","",A5:A24+30)</f>
       </c>
       <c r="B65" s="36" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D65" s="38">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G65" s="10">
         <v>0</v>
@@ -4063,12 +4063,12 @@
       <c r="A66" s="26"/>
       <c r="B66" s="1"/>
       <c r="C66" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D66" s="38"/>
       <c r="E66" s="10"/>
       <c r="F66" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
@@ -4095,10 +4095,10 @@
         <v>32</v>
       </c>
       <c r="B67" s="36" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D67" s="38">
         <v>0.02</v>
@@ -4107,7 +4107,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G67" s="38">
         <v>0.03</v>
@@ -4137,12 +4137,12 @@
       <c r="A68" s="26"/>
       <c r="B68" s="1"/>
       <c r="C68" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D68" s="38"/>
       <c r="E68" s="10"/>
       <c r="F68" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G68" s="38"/>
       <c r="H68" s="38"/>
@@ -4169,10 +4169,10 @@
         <v>33</v>
       </c>
       <c r="B69" s="36" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D69" s="38">
         <v>0.02</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G69" s="38">
         <v>0.02</v>
@@ -4211,12 +4211,12 @@
       <c r="A70" s="26"/>
       <c r="B70" s="1"/>
       <c r="C70" s="25" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D70" s="38"/>
       <c r="E70" s="10"/>
       <c r="F70" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G70" s="38"/>
       <c r="H70" s="38"/>
@@ -4243,10 +4243,10 @@
         <v>34</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D71" s="38">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G71" s="10">
         <v>0</v>
@@ -4285,12 +4285,12 @@
       <c r="A72" s="26"/>
       <c r="B72" s="1"/>
       <c r="C72" s="25" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D72" s="38"/>
       <c r="E72" s="10"/>
       <c r="F72" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G72" s="38"/>
       <c r="H72" s="38"/>
@@ -4317,10 +4317,10 @@
         <v>35</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C73" s="25" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D73" s="38">
         <v>0.02</v>
@@ -4329,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G73" s="38">
         <v>0.03</v>
@@ -4359,12 +4359,12 @@
       <c r="A74" s="26"/>
       <c r="B74" s="1"/>
       <c r="C74" s="25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D74" s="38"/>
       <c r="E74" s="10"/>
       <c r="F74" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G74" s="38"/>
       <c r="H74" s="38"/>
@@ -4391,10 +4391,10 @@
         <v>36</v>
       </c>
       <c r="B75" s="36" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D75" s="38">
         <v>0.48</v>
@@ -4403,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G75" s="38">
         <v>0.49</v>
@@ -4433,12 +4433,12 @@
       <c r="A76" s="26"/>
       <c r="B76" s="1"/>
       <c r="C76" s="25" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D76" s="38"/>
       <c r="E76" s="10"/>
       <c r="F76" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G76" s="38"/>
       <c r="H76" s="38"/>
@@ -4465,10 +4465,10 @@
         <v>37</v>
       </c>
       <c r="B77" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="25" t="s">
         <v>286</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>283</v>
       </c>
       <c r="D77" s="38">
         <v>0.01</v>
@@ -4477,7 +4477,7 @@
         <v>2</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G77" s="38">
         <v>0.01</v>
@@ -4507,12 +4507,12 @@
       <c r="A78" s="26"/>
       <c r="B78" s="1"/>
       <c r="C78" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D78" s="38"/>
       <c r="E78" s="10"/>
       <c r="F78" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G78" s="38"/>
       <c r="H78" s="38"/>
@@ -4539,10 +4539,10 @@
         <v>38</v>
       </c>
       <c r="B79" s="36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D79" s="38">
         <v>0.01</v>
@@ -4551,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G79" s="38">
         <v>0.01</v>
@@ -4581,12 +4581,12 @@
       <c r="A80" s="26"/>
       <c r="B80" s="1"/>
       <c r="C80" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D80" s="38"/>
       <c r="E80" s="10"/>
       <c r="F80" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G80" s="38"/>
       <c r="H80" s="38"/>
@@ -4613,10 +4613,10 @@
         <v>39</v>
       </c>
       <c r="B81" s="36" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D81" s="38">
         <v>0.01</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G81" s="38">
         <v>0.01</v>
@@ -4655,12 +4655,12 @@
       <c r="A82" s="26"/>
       <c r="B82" s="1"/>
       <c r="C82" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="10"/>
       <c r="F82" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
@@ -4687,10 +4687,10 @@
         <v>40</v>
       </c>
       <c r="B83" s="36" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D83" s="38">
         <v>0.02</v>
@@ -4699,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G83" s="38">
         <v>0.04</v>
@@ -4729,12 +4729,12 @@
       <c r="A84" s="26"/>
       <c r="B84" s="1"/>
       <c r="C84" s="25" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D84" s="38"/>
       <c r="E84" s="10"/>
       <c r="F84" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G84" s="38"/>
       <c r="H84" s="38"/>
@@ -4761,10 +4761,10 @@
         <f>IF(A5:A24="","",A5:A24+40)</f>
       </c>
       <c r="B85" s="36" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D85" s="38">
         <v>0.02</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G85" s="38">
         <v>0.03</v>
@@ -4803,12 +4803,12 @@
       <c r="A86" s="26"/>
       <c r="B86" s="1"/>
       <c r="C86" s="25" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D86" s="38"/>
       <c r="E86" s="10"/>
       <c r="F86" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G86" s="38"/>
       <c r="H86" s="38"/>
@@ -4835,10 +4835,10 @@
         <v>42</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D87" s="38">
         <v>0.01</v>
@@ -4847,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G87" s="38">
         <v>0.01</v>
@@ -4877,12 +4877,12 @@
       <c r="A88" s="26"/>
       <c r="B88" s="1"/>
       <c r="C88" s="25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D88" s="38"/>
       <c r="E88" s="10"/>
       <c r="F88" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G88" s="38"/>
       <c r="H88" s="38"/>
@@ -4909,10 +4909,10 @@
         <v>43</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D89" s="38">
         <v>0.48</v>
@@ -4921,7 +4921,7 @@
         <v>15</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="G89" s="38">
         <v>0.5</v>
@@ -4951,12 +4951,12 @@
       <c r="A90" s="26"/>
       <c r="B90" s="1"/>
       <c r="C90" s="25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D90" s="38"/>
       <c r="E90" s="10"/>
       <c r="F90" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G90" s="38"/>
       <c r="H90" s="38"/>
@@ -4983,10 +4983,10 @@
         <v>44</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C91" s="25" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D91" s="38">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>7</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G91" s="38">
         <v>0.01</v>
@@ -5025,12 +5025,12 @@
       <c r="A92" s="26"/>
       <c r="B92" s="1"/>
       <c r="C92" s="25" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D92" s="38"/>
       <c r="E92" s="10"/>
       <c r="F92" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G92" s="38"/>
       <c r="H92" s="38"/>
@@ -5057,10 +5057,10 @@
         <v>45</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C93" s="25" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D93" s="38">
         <v>0</v>
@@ -5069,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G93" s="38">
         <v>0.01</v>
@@ -5099,12 +5099,12 @@
       <c r="A94" s="26"/>
       <c r="B94" s="1"/>
       <c r="C94" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D94" s="38"/>
       <c r="E94" s="10"/>
       <c r="F94" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G94" s="38"/>
       <c r="H94" s="38"/>
@@ -5131,10 +5131,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C95" s="25" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D95" s="38">
         <v>0.01</v>
@@ -5143,7 +5143,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G95" s="38">
         <v>0.01</v>
@@ -5173,12 +5173,12 @@
       <c r="A96" s="26"/>
       <c r="B96" s="1"/>
       <c r="C96" s="25" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D96" s="38"/>
       <c r="E96" s="10"/>
       <c r="F96" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G96" s="38"/>
       <c r="H96" s="38"/>
@@ -5205,10 +5205,10 @@
         <v>47</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D97" s="38">
         <v>0.02</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G97" s="38">
         <v>0.04</v>
@@ -5247,12 +5247,12 @@
       <c r="A98" s="26"/>
       <c r="B98" s="1"/>
       <c r="C98" s="25" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D98" s="38"/>
       <c r="E98" s="10"/>
       <c r="F98" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G98" s="38"/>
       <c r="H98" s="38"/>
@@ -5279,10 +5279,10 @@
         <v>48</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C99" s="25" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D99" s="38">
         <v>0.02</v>
@@ -5291,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G99" s="38">
         <v>0.03</v>
@@ -5321,12 +5321,12 @@
       <c r="A100" s="26"/>
       <c r="B100" s="1"/>
       <c r="C100" s="25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D100" s="38"/>
       <c r="E100" s="10"/>
       <c r="F100" s="8" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
@@ -5353,10 +5353,10 @@
         <v>49</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C101" s="25" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D101" s="38">
         <v>0.01</v>
@@ -5365,7 +5365,7 @@
         <v>2</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G101" s="38">
         <v>0.01</v>
@@ -5395,12 +5395,12 @@
       <c r="A102" s="26"/>
       <c r="B102" s="1"/>
       <c r="C102" s="25" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D102" s="38"/>
       <c r="E102" s="10"/>
       <c r="F102" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G102" s="38"/>
       <c r="H102" s="38"/>
@@ -5427,10 +5427,10 @@
         <v>50</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C103" s="25" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D103" s="38">
         <v>0.0049</v>
@@ -5439,7 +5439,7 @@
         <v>7.5706</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="G103" s="38">
         <v>0.0049</v>
@@ -5469,12 +5469,12 @@
       <c r="A104" s="26"/>
       <c r="B104" s="25"/>
       <c r="C104" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D104" s="38"/>
       <c r="E104" s="10"/>
       <c r="F104" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G104" s="38"/>
       <c r="H104" s="38"/>
@@ -29827,11 +29827,11 @@
       <c r="A1006" s="29"/>
       <c r="B1006" s="1"/>
       <c r="C1006" s="1"/>
-      <c r="D1006" s="53"/>
+      <c r="D1006" s="52"/>
       <c r="E1006" s="29"/>
       <c r="F1006" s="1"/>
-      <c r="G1006" s="51"/>
-      <c r="H1006" s="51"/>
+      <c r="G1006" s="52"/>
+      <c r="H1006" s="52"/>
       <c r="I1006" s="1"/>
       <c r="J1006" s="1"/>
       <c r="K1006" s="1"/>
@@ -29854,11 +29854,11 @@
       <c r="A1007" s="29"/>
       <c r="B1007" s="1"/>
       <c r="C1007" s="1"/>
-      <c r="D1007" s="53"/>
+      <c r="D1007" s="52"/>
       <c r="E1007" s="29"/>
       <c r="F1007" s="1"/>
-      <c r="G1007" s="51"/>
-      <c r="H1007" s="51"/>
+      <c r="G1007" s="52"/>
+      <c r="H1007" s="52"/>
       <c r="I1007" s="1"/>
       <c r="J1007" s="1"/>
       <c r="K1007" s="1"/>
@@ -29881,11 +29881,11 @@
       <c r="A1008" s="29"/>
       <c r="B1008" s="1"/>
       <c r="C1008" s="1"/>
-      <c r="D1008" s="53"/>
+      <c r="D1008" s="52"/>
       <c r="E1008" s="29"/>
       <c r="F1008" s="1"/>
-      <c r="G1008" s="51"/>
-      <c r="H1008" s="51"/>
+      <c r="G1008" s="52"/>
+      <c r="H1008" s="52"/>
       <c r="I1008" s="1"/>
       <c r="J1008" s="1"/>
       <c r="K1008" s="1"/>
@@ -29908,11 +29908,11 @@
       <c r="A1009" s="29"/>
       <c r="B1009" s="1"/>
       <c r="C1009" s="1"/>
-      <c r="D1009" s="53"/>
+      <c r="D1009" s="52"/>
       <c r="E1009" s="29"/>
       <c r="F1009" s="1"/>
-      <c r="G1009" s="51"/>
-      <c r="H1009" s="51"/>
+      <c r="G1009" s="52"/>
+      <c r="H1009" s="52"/>
       <c r="I1009" s="1"/>
       <c r="J1009" s="1"/>
       <c r="K1009" s="1"/>
@@ -29935,11 +29935,11 @@
       <c r="A1010" s="29"/>
       <c r="B1010" s="1"/>
       <c r="C1010" s="1"/>
-      <c r="D1010" s="53"/>
+      <c r="D1010" s="52"/>
       <c r="E1010" s="29"/>
       <c r="F1010" s="1"/>
-      <c r="G1010" s="51"/>
-      <c r="H1010" s="51"/>
+      <c r="G1010" s="52"/>
+      <c r="H1010" s="52"/>
       <c r="I1010" s="1"/>
       <c r="J1010" s="1"/>
       <c r="K1010" s="1"/>
@@ -29962,11 +29962,11 @@
       <c r="A1011" s="29"/>
       <c r="B1011" s="1"/>
       <c r="C1011" s="1"/>
-      <c r="D1011" s="53"/>
+      <c r="D1011" s="52"/>
       <c r="E1011" s="29"/>
       <c r="F1011" s="1"/>
-      <c r="G1011" s="51"/>
-      <c r="H1011" s="51"/>
+      <c r="G1011" s="52"/>
+      <c r="H1011" s="52"/>
       <c r="I1011" s="1"/>
       <c r="J1011" s="1"/>
       <c r="K1011" s="1"/>
@@ -29989,11 +29989,11 @@
       <c r="A1012" s="29"/>
       <c r="B1012" s="1"/>
       <c r="C1012" s="1"/>
-      <c r="D1012" s="53"/>
+      <c r="D1012" s="52"/>
       <c r="E1012" s="29"/>
       <c r="F1012" s="1"/>
-      <c r="G1012" s="51"/>
-      <c r="H1012" s="51"/>
+      <c r="G1012" s="52"/>
+      <c r="H1012" s="52"/>
       <c r="I1012" s="1"/>
       <c r="J1012" s="1"/>
       <c r="K1012" s="1"/>
@@ -30016,11 +30016,11 @@
       <c r="A1013" s="29"/>
       <c r="B1013" s="1"/>
       <c r="C1013" s="1"/>
-      <c r="D1013" s="53"/>
+      <c r="D1013" s="52"/>
       <c r="E1013" s="29"/>
       <c r="F1013" s="1"/>
-      <c r="G1013" s="51"/>
-      <c r="H1013" s="51"/>
+      <c r="G1013" s="52"/>
+      <c r="H1013" s="52"/>
       <c r="I1013" s="1"/>
       <c r="J1013" s="1"/>
       <c r="K1013" s="1"/>
@@ -30043,11 +30043,11 @@
       <c r="A1014" s="29"/>
       <c r="B1014" s="1"/>
       <c r="C1014" s="1"/>
-      <c r="D1014" s="53"/>
+      <c r="D1014" s="52"/>
       <c r="E1014" s="29"/>
       <c r="F1014" s="1"/>
-      <c r="G1014" s="51"/>
-      <c r="H1014" s="51"/>
+      <c r="G1014" s="52"/>
+      <c r="H1014" s="52"/>
       <c r="I1014" s="1"/>
       <c r="J1014" s="1"/>
       <c r="K1014" s="1"/>
@@ -30070,11 +30070,11 @@
       <c r="A1015" s="29"/>
       <c r="B1015" s="1"/>
       <c r="C1015" s="1"/>
-      <c r="D1015" s="53"/>
+      <c r="D1015" s="52"/>
       <c r="E1015" s="29"/>
       <c r="F1015" s="1"/>
-      <c r="G1015" s="51"/>
-      <c r="H1015" s="51"/>
+      <c r="G1015" s="52"/>
+      <c r="H1015" s="52"/>
       <c r="I1015" s="1"/>
       <c r="J1015" s="1"/>
       <c r="K1015" s="1"/>
@@ -30097,11 +30097,11 @@
       <c r="A1016" s="29"/>
       <c r="B1016" s="1"/>
       <c r="C1016" s="1"/>
-      <c r="D1016" s="53"/>
+      <c r="D1016" s="52"/>
       <c r="E1016" s="29"/>
       <c r="F1016" s="1"/>
-      <c r="G1016" s="51"/>
-      <c r="H1016" s="51"/>
+      <c r="G1016" s="52"/>
+      <c r="H1016" s="52"/>
       <c r="I1016" s="1"/>
       <c r="J1016" s="1"/>
       <c r="K1016" s="1"/>
@@ -30124,11 +30124,11 @@
       <c r="A1017" s="29"/>
       <c r="B1017" s="1"/>
       <c r="C1017" s="1"/>
-      <c r="D1017" s="53"/>
+      <c r="D1017" s="52"/>
       <c r="E1017" s="29"/>
       <c r="F1017" s="1"/>
-      <c r="G1017" s="51"/>
-      <c r="H1017" s="51"/>
+      <c r="G1017" s="52"/>
+      <c r="H1017" s="52"/>
       <c r="I1017" s="1"/>
       <c r="J1017" s="1"/>
       <c r="K1017" s="1"/>
@@ -30151,11 +30151,11 @@
       <c r="A1018" s="29"/>
       <c r="B1018" s="1"/>
       <c r="C1018" s="1"/>
-      <c r="D1018" s="53"/>
+      <c r="D1018" s="52"/>
       <c r="E1018" s="29"/>
       <c r="F1018" s="1"/>
-      <c r="G1018" s="51"/>
-      <c r="H1018" s="51"/>
+      <c r="G1018" s="52"/>
+      <c r="H1018" s="52"/>
       <c r="I1018" s="1"/>
       <c r="J1018" s="1"/>
       <c r="K1018" s="1"/>
@@ -30178,11 +30178,11 @@
       <c r="A1019" s="29"/>
       <c r="B1019" s="1"/>
       <c r="C1019" s="1"/>
-      <c r="D1019" s="53"/>
+      <c r="D1019" s="52"/>
       <c r="E1019" s="29"/>
       <c r="F1019" s="1"/>
-      <c r="G1019" s="51"/>
-      <c r="H1019" s="51"/>
+      <c r="G1019" s="52"/>
+      <c r="H1019" s="52"/>
       <c r="I1019" s="1"/>
       <c r="J1019" s="1"/>
       <c r="K1019" s="1"/>
@@ -30205,11 +30205,11 @@
       <c r="A1020" s="29"/>
       <c r="B1020" s="1"/>
       <c r="C1020" s="1"/>
-      <c r="D1020" s="53"/>
+      <c r="D1020" s="52"/>
       <c r="E1020" s="29"/>
       <c r="F1020" s="1"/>
-      <c r="G1020" s="51"/>
-      <c r="H1020" s="51"/>
+      <c r="G1020" s="52"/>
+      <c r="H1020" s="52"/>
       <c r="I1020" s="1"/>
       <c r="J1020" s="1"/>
       <c r="K1020" s="1"/>
@@ -30232,11 +30232,11 @@
       <c r="A1021" s="29"/>
       <c r="B1021" s="1"/>
       <c r="C1021" s="1"/>
-      <c r="D1021" s="53"/>
+      <c r="D1021" s="52"/>
       <c r="E1021" s="29"/>
       <c r="F1021" s="1"/>
-      <c r="G1021" s="51"/>
-      <c r="H1021" s="51"/>
+      <c r="G1021" s="52"/>
+      <c r="H1021" s="52"/>
       <c r="I1021" s="1"/>
       <c r="J1021" s="1"/>
       <c r="K1021" s="1"/>
@@ -30259,11 +30259,11 @@
       <c r="A1022" s="29"/>
       <c r="B1022" s="1"/>
       <c r="C1022" s="1"/>
-      <c r="D1022" s="53"/>
+      <c r="D1022" s="52"/>
       <c r="E1022" s="29"/>
       <c r="F1022" s="1"/>
-      <c r="G1022" s="51"/>
-      <c r="H1022" s="51"/>
+      <c r="G1022" s="52"/>
+      <c r="H1022" s="52"/>
       <c r="I1022" s="1"/>
       <c r="J1022" s="1"/>
       <c r="K1022" s="1"/>
@@ -30286,11 +30286,11 @@
       <c r="A1023" s="29"/>
       <c r="B1023" s="1"/>
       <c r="C1023" s="1"/>
-      <c r="D1023" s="53"/>
+      <c r="D1023" s="52"/>
       <c r="E1023" s="29"/>
       <c r="F1023" s="1"/>
-      <c r="G1023" s="51"/>
-      <c r="H1023" s="51"/>
+      <c r="G1023" s="52"/>
+      <c r="H1023" s="52"/>
       <c r="I1023" s="1"/>
       <c r="J1023" s="1"/>
       <c r="K1023" s="1"/>
@@ -30313,11 +30313,11 @@
       <c r="A1024" s="29"/>
       <c r="B1024" s="1"/>
       <c r="C1024" s="1"/>
-      <c r="D1024" s="53"/>
+      <c r="D1024" s="52"/>
       <c r="E1024" s="29"/>
       <c r="F1024" s="1"/>
-      <c r="G1024" s="51"/>
-      <c r="H1024" s="51"/>
+      <c r="G1024" s="52"/>
+      <c r="H1024" s="52"/>
       <c r="I1024" s="1"/>
       <c r="J1024" s="1"/>
       <c r="K1024" s="1"/>
@@ -30340,11 +30340,11 @@
       <c r="A1025" s="29"/>
       <c r="B1025" s="1"/>
       <c r="C1025" s="1"/>
-      <c r="D1025" s="53"/>
+      <c r="D1025" s="52"/>
       <c r="E1025" s="29"/>
       <c r="F1025" s="1"/>
-      <c r="G1025" s="51"/>
-      <c r="H1025" s="51"/>
+      <c r="G1025" s="52"/>
+      <c r="H1025" s="52"/>
       <c r="I1025" s="1"/>
       <c r="J1025" s="1"/>
       <c r="K1025" s="1"/>
@@ -30367,11 +30367,11 @@
       <c r="A1026" s="29"/>
       <c r="B1026" s="1"/>
       <c r="C1026" s="1"/>
-      <c r="D1026" s="53"/>
+      <c r="D1026" s="52"/>
       <c r="E1026" s="29"/>
       <c r="F1026" s="1"/>
-      <c r="G1026" s="51"/>
-      <c r="H1026" s="51"/>
+      <c r="G1026" s="52"/>
+      <c r="H1026" s="52"/>
       <c r="I1026" s="1"/>
       <c r="J1026" s="1"/>
       <c r="K1026" s="1"/>
@@ -30394,11 +30394,11 @@
       <c r="A1027" s="29"/>
       <c r="B1027" s="1"/>
       <c r="C1027" s="1"/>
-      <c r="D1027" s="53"/>
+      <c r="D1027" s="52"/>
       <c r="E1027" s="29"/>
       <c r="F1027" s="1"/>
-      <c r="G1027" s="51"/>
-      <c r="H1027" s="51"/>
+      <c r="G1027" s="52"/>
+      <c r="H1027" s="52"/>
       <c r="I1027" s="1"/>
       <c r="J1027" s="1"/>
       <c r="K1027" s="1"/>
@@ -30421,11 +30421,11 @@
       <c r="A1028" s="29"/>
       <c r="B1028" s="1"/>
       <c r="C1028" s="1"/>
-      <c r="D1028" s="53"/>
+      <c r="D1028" s="52"/>
       <c r="E1028" s="29"/>
       <c r="F1028" s="1"/>
-      <c r="G1028" s="51"/>
-      <c r="H1028" s="51"/>
+      <c r="G1028" s="52"/>
+      <c r="H1028" s="52"/>
       <c r="I1028" s="1"/>
       <c r="J1028" s="1"/>
       <c r="K1028" s="1"/>
@@ -30448,11 +30448,11 @@
       <c r="A1029" s="29"/>
       <c r="B1029" s="1"/>
       <c r="C1029" s="1"/>
-      <c r="D1029" s="53"/>
+      <c r="D1029" s="52"/>
       <c r="E1029" s="29"/>
       <c r="F1029" s="1"/>
-      <c r="G1029" s="51"/>
-      <c r="H1029" s="51"/>
+      <c r="G1029" s="52"/>
+      <c r="H1029" s="52"/>
       <c r="I1029" s="1"/>
       <c r="J1029" s="1"/>
       <c r="K1029" s="1"/>
@@ -30475,11 +30475,11 @@
       <c r="A1030" s="29"/>
       <c r="B1030" s="1"/>
       <c r="C1030" s="1"/>
-      <c r="D1030" s="53"/>
+      <c r="D1030" s="52"/>
       <c r="E1030" s="29"/>
       <c r="F1030" s="1"/>
-      <c r="G1030" s="51"/>
-      <c r="H1030" s="51"/>
+      <c r="G1030" s="52"/>
+      <c r="H1030" s="52"/>
       <c r="I1030" s="1"/>
       <c r="J1030" s="1"/>
       <c r="K1030" s="1"/>
@@ -30502,11 +30502,11 @@
       <c r="A1031" s="29"/>
       <c r="B1031" s="1"/>
       <c r="C1031" s="1"/>
-      <c r="D1031" s="53"/>
+      <c r="D1031" s="52"/>
       <c r="E1031" s="29"/>
       <c r="F1031" s="1"/>
-      <c r="G1031" s="51"/>
-      <c r="H1031" s="51"/>
+      <c r="G1031" s="52"/>
+      <c r="H1031" s="52"/>
       <c r="I1031" s="1"/>
       <c r="J1031" s="1"/>
       <c r="K1031" s="1"/>
@@ -30529,11 +30529,11 @@
       <c r="A1032" s="29"/>
       <c r="B1032" s="1"/>
       <c r="C1032" s="1"/>
-      <c r="D1032" s="53"/>
+      <c r="D1032" s="52"/>
       <c r="E1032" s="29"/>
       <c r="F1032" s="1"/>
-      <c r="G1032" s="51"/>
-      <c r="H1032" s="51"/>
+      <c r="G1032" s="52"/>
+      <c r="H1032" s="52"/>
       <c r="I1032" s="1"/>
       <c r="J1032" s="1"/>
       <c r="K1032" s="1"/>
@@ -30556,11 +30556,11 @@
       <c r="A1033" s="29"/>
       <c r="B1033" s="1"/>
       <c r="C1033" s="1"/>
-      <c r="D1033" s="53"/>
+      <c r="D1033" s="52"/>
       <c r="E1033" s="29"/>
       <c r="F1033" s="1"/>
-      <c r="G1033" s="51"/>
-      <c r="H1033" s="51"/>
+      <c r="G1033" s="52"/>
+      <c r="H1033" s="52"/>
       <c r="I1033" s="1"/>
       <c r="J1033" s="1"/>
       <c r="K1033" s="1"/>
@@ -30583,11 +30583,11 @@
       <c r="A1034" s="29"/>
       <c r="B1034" s="1"/>
       <c r="C1034" s="1"/>
-      <c r="D1034" s="53"/>
+      <c r="D1034" s="52"/>
       <c r="E1034" s="29"/>
       <c r="F1034" s="1"/>
-      <c r="G1034" s="51"/>
-      <c r="H1034" s="51"/>
+      <c r="G1034" s="52"/>
+      <c r="H1034" s="52"/>
       <c r="I1034" s="1"/>
       <c r="J1034" s="1"/>
       <c r="K1034" s="1"/>
@@ -30610,11 +30610,11 @@
       <c r="A1035" s="29"/>
       <c r="B1035" s="1"/>
       <c r="C1035" s="1"/>
-      <c r="D1035" s="53"/>
+      <c r="D1035" s="52"/>
       <c r="E1035" s="29"/>
       <c r="F1035" s="1"/>
-      <c r="G1035" s="51"/>
-      <c r="H1035" s="51"/>
+      <c r="G1035" s="52"/>
+      <c r="H1035" s="52"/>
       <c r="I1035" s="1"/>
       <c r="J1035" s="1"/>
       <c r="K1035" s="1"/>
@@ -30637,11 +30637,11 @@
       <c r="A1036" s="29"/>
       <c r="B1036" s="1"/>
       <c r="C1036" s="1"/>
-      <c r="D1036" s="53"/>
+      <c r="D1036" s="52"/>
       <c r="E1036" s="29"/>
       <c r="F1036" s="1"/>
-      <c r="G1036" s="51"/>
-      <c r="H1036" s="51"/>
+      <c r="G1036" s="52"/>
+      <c r="H1036" s="52"/>
       <c r="I1036" s="1"/>
       <c r="J1036" s="1"/>
       <c r="K1036" s="1"/>
@@ -30664,11 +30664,11 @@
       <c r="A1037" s="29"/>
       <c r="B1037" s="1"/>
       <c r="C1037" s="1"/>
-      <c r="D1037" s="53"/>
+      <c r="D1037" s="52"/>
       <c r="E1037" s="29"/>
       <c r="F1037" s="1"/>
-      <c r="G1037" s="51"/>
-      <c r="H1037" s="51"/>
+      <c r="G1037" s="52"/>
+      <c r="H1037" s="52"/>
       <c r="I1037" s="1"/>
       <c r="J1037" s="1"/>
       <c r="K1037" s="1"/>
@@ -30691,11 +30691,11 @@
       <c r="A1038" s="29"/>
       <c r="B1038" s="1"/>
       <c r="C1038" s="1"/>
-      <c r="D1038" s="53"/>
+      <c r="D1038" s="52"/>
       <c r="E1038" s="29"/>
       <c r="F1038" s="1"/>
-      <c r="G1038" s="51"/>
-      <c r="H1038" s="51"/>
+      <c r="G1038" s="52"/>
+      <c r="H1038" s="52"/>
       <c r="I1038" s="1"/>
       <c r="J1038" s="1"/>
       <c r="K1038" s="1"/>
@@ -30718,11 +30718,11 @@
       <c r="A1039" s="29"/>
       <c r="B1039" s="1"/>
       <c r="C1039" s="1"/>
-      <c r="D1039" s="53"/>
+      <c r="D1039" s="52"/>
       <c r="E1039" s="29"/>
       <c r="F1039" s="1"/>
-      <c r="G1039" s="51"/>
-      <c r="H1039" s="51"/>
+      <c r="G1039" s="52"/>
+      <c r="H1039" s="52"/>
       <c r="I1039" s="1"/>
       <c r="J1039" s="1"/>
       <c r="K1039" s="1"/>
@@ -30745,11 +30745,11 @@
       <c r="A1040" s="29"/>
       <c r="B1040" s="1"/>
       <c r="C1040" s="1"/>
-      <c r="D1040" s="53"/>
+      <c r="D1040" s="52"/>
       <c r="E1040" s="29"/>
       <c r="F1040" s="1"/>
-      <c r="G1040" s="51"/>
-      <c r="H1040" s="51"/>
+      <c r="G1040" s="52"/>
+      <c r="H1040" s="52"/>
       <c r="I1040" s="1"/>
       <c r="J1040" s="1"/>
       <c r="K1040" s="1"/>
@@ -30772,11 +30772,11 @@
       <c r="A1041" s="29"/>
       <c r="B1041" s="1"/>
       <c r="C1041" s="1"/>
-      <c r="D1041" s="53"/>
+      <c r="D1041" s="52"/>
       <c r="E1041" s="29"/>
       <c r="F1041" s="1"/>
-      <c r="G1041" s="51"/>
-      <c r="H1041" s="51"/>
+      <c r="G1041" s="52"/>
+      <c r="H1041" s="52"/>
       <c r="I1041" s="1"/>
       <c r="J1041" s="1"/>
       <c r="K1041" s="1"/>
@@ -30799,11 +30799,11 @@
       <c r="A1042" s="29"/>
       <c r="B1042" s="1"/>
       <c r="C1042" s="1"/>
-      <c r="D1042" s="53"/>
+      <c r="D1042" s="52"/>
       <c r="E1042" s="29"/>
       <c r="F1042" s="1"/>
-      <c r="G1042" s="51"/>
-      <c r="H1042" s="51"/>
+      <c r="G1042" s="52"/>
+      <c r="H1042" s="52"/>
       <c r="I1042" s="1"/>
       <c r="J1042" s="1"/>
       <c r="K1042" s="1"/>
@@ -30826,11 +30826,11 @@
       <c r="A1043" s="29"/>
       <c r="B1043" s="1"/>
       <c r="C1043" s="1"/>
-      <c r="D1043" s="53"/>
+      <c r="D1043" s="52"/>
       <c r="E1043" s="29"/>
       <c r="F1043" s="1"/>
-      <c r="G1043" s="51"/>
-      <c r="H1043" s="51"/>
+      <c r="G1043" s="52"/>
+      <c r="H1043" s="52"/>
       <c r="I1043" s="1"/>
       <c r="J1043" s="1"/>
       <c r="K1043" s="1"/>
@@ -30853,11 +30853,11 @@
       <c r="A1044" s="29"/>
       <c r="B1044" s="1"/>
       <c r="C1044" s="1"/>
-      <c r="D1044" s="53"/>
+      <c r="D1044" s="52"/>
       <c r="E1044" s="29"/>
       <c r="F1044" s="1"/>
-      <c r="G1044" s="51"/>
-      <c r="H1044" s="51"/>
+      <c r="G1044" s="52"/>
+      <c r="H1044" s="52"/>
       <c r="I1044" s="1"/>
       <c r="J1044" s="1"/>
       <c r="K1044" s="1"/>
@@ -30880,11 +30880,11 @@
       <c r="A1045" s="29"/>
       <c r="B1045" s="1"/>
       <c r="C1045" s="1"/>
-      <c r="D1045" s="53"/>
+      <c r="D1045" s="52"/>
       <c r="E1045" s="29"/>
       <c r="F1045" s="1"/>
-      <c r="G1045" s="51"/>
-      <c r="H1045" s="51"/>
+      <c r="G1045" s="52"/>
+      <c r="H1045" s="52"/>
       <c r="I1045" s="1"/>
       <c r="J1045" s="1"/>
       <c r="K1045" s="1"/>
@@ -30907,11 +30907,11 @@
       <c r="A1046" s="29"/>
       <c r="B1046" s="1"/>
       <c r="C1046" s="1"/>
-      <c r="D1046" s="53"/>
+      <c r="D1046" s="52"/>
       <c r="E1046" s="29"/>
       <c r="F1046" s="1"/>
-      <c r="G1046" s="51"/>
-      <c r="H1046" s="51"/>
+      <c r="G1046" s="52"/>
+      <c r="H1046" s="52"/>
       <c r="I1046" s="1"/>
       <c r="J1046" s="1"/>
       <c r="K1046" s="1"/>
@@ -30934,11 +30934,11 @@
       <c r="A1047" s="29"/>
       <c r="B1047" s="1"/>
       <c r="C1047" s="1"/>
-      <c r="D1047" s="53"/>
+      <c r="D1047" s="52"/>
       <c r="E1047" s="29"/>
       <c r="F1047" s="1"/>
-      <c r="G1047" s="51"/>
-      <c r="H1047" s="51"/>
+      <c r="G1047" s="52"/>
+      <c r="H1047" s="52"/>
       <c r="I1047" s="1"/>
       <c r="J1047" s="1"/>
       <c r="K1047" s="1"/>
@@ -30961,11 +30961,11 @@
       <c r="A1048" s="29"/>
       <c r="B1048" s="1"/>
       <c r="C1048" s="1"/>
-      <c r="D1048" s="53"/>
+      <c r="D1048" s="52"/>
       <c r="E1048" s="29"/>
       <c r="F1048" s="1"/>
-      <c r="G1048" s="51"/>
-      <c r="H1048" s="51"/>
+      <c r="G1048" s="52"/>
+      <c r="H1048" s="52"/>
       <c r="I1048" s="1"/>
       <c r="J1048" s="1"/>
       <c r="K1048" s="1"/>
@@ -30988,11 +30988,11 @@
       <c r="A1049" s="29"/>
       <c r="B1049" s="1"/>
       <c r="C1049" s="1"/>
-      <c r="D1049" s="53"/>
+      <c r="D1049" s="52"/>
       <c r="E1049" s="29"/>
       <c r="F1049" s="1"/>
-      <c r="G1049" s="51"/>
-      <c r="H1049" s="51"/>
+      <c r="G1049" s="52"/>
+      <c r="H1049" s="52"/>
       <c r="I1049" s="1"/>
       <c r="J1049" s="1"/>
       <c r="K1049" s="1"/>
@@ -31015,11 +31015,11 @@
       <c r="A1050" s="29"/>
       <c r="B1050" s="1"/>
       <c r="C1050" s="1"/>
-      <c r="D1050" s="53"/>
+      <c r="D1050" s="52"/>
       <c r="E1050" s="29"/>
       <c r="F1050" s="1"/>
-      <c r="G1050" s="51"/>
-      <c r="H1050" s="51"/>
+      <c r="G1050" s="52"/>
+      <c r="H1050" s="52"/>
       <c r="I1050" s="1"/>
       <c r="J1050" s="1"/>
       <c r="K1050" s="1"/>
@@ -31042,11 +31042,11 @@
       <c r="A1051" s="29"/>
       <c r="B1051" s="1"/>
       <c r="C1051" s="1"/>
-      <c r="D1051" s="53"/>
+      <c r="D1051" s="52"/>
       <c r="E1051" s="29"/>
       <c r="F1051" s="1"/>
-      <c r="G1051" s="51"/>
-      <c r="H1051" s="51"/>
+      <c r="G1051" s="52"/>
+      <c r="H1051" s="52"/>
       <c r="I1051" s="1"/>
       <c r="J1051" s="1"/>
       <c r="K1051" s="1"/>
@@ -31069,11 +31069,11 @@
       <c r="A1052" s="29"/>
       <c r="B1052" s="1"/>
       <c r="C1052" s="1"/>
-      <c r="D1052" s="53"/>
+      <c r="D1052" s="52"/>
       <c r="E1052" s="29"/>
       <c r="F1052" s="1"/>
-      <c r="G1052" s="51"/>
-      <c r="H1052" s="51"/>
+      <c r="G1052" s="52"/>
+      <c r="H1052" s="52"/>
       <c r="I1052" s="1"/>
       <c r="J1052" s="1"/>
       <c r="K1052" s="1"/>
@@ -31096,11 +31096,11 @@
       <c r="A1053" s="29"/>
       <c r="B1053" s="1"/>
       <c r="C1053" s="1"/>
-      <c r="D1053" s="53"/>
+      <c r="D1053" s="52"/>
       <c r="E1053" s="29"/>
       <c r="F1053" s="1"/>
-      <c r="G1053" s="51"/>
-      <c r="H1053" s="51"/>
+      <c r="G1053" s="52"/>
+      <c r="H1053" s="52"/>
       <c r="I1053" s="1"/>
       <c r="J1053" s="1"/>
       <c r="K1053" s="1"/>
@@ -31123,11 +31123,11 @@
       <c r="A1054" s="29"/>
       <c r="B1054" s="1"/>
       <c r="C1054" s="1"/>
-      <c r="D1054" s="53"/>
+      <c r="D1054" s="52"/>
       <c r="E1054" s="29"/>
       <c r="F1054" s="1"/>
-      <c r="G1054" s="51"/>
-      <c r="H1054" s="51"/>
+      <c r="G1054" s="52"/>
+      <c r="H1054" s="52"/>
       <c r="I1054" s="1"/>
       <c r="J1054" s="1"/>
       <c r="K1054" s="1"/>
@@ -31150,11 +31150,11 @@
       <c r="A1055" s="29"/>
       <c r="B1055" s="1"/>
       <c r="C1055" s="1"/>
-      <c r="D1055" s="53"/>
+      <c r="D1055" s="52"/>
       <c r="E1055" s="29"/>
       <c r="F1055" s="1"/>
-      <c r="G1055" s="51"/>
-      <c r="H1055" s="51"/>
+      <c r="G1055" s="52"/>
+      <c r="H1055" s="52"/>
       <c r="I1055" s="1"/>
       <c r="J1055" s="1"/>
       <c r="K1055" s="1"/>
@@ -31177,11 +31177,11 @@
       <c r="A1056" s="29"/>
       <c r="B1056" s="1"/>
       <c r="C1056" s="1"/>
-      <c r="D1056" s="53"/>
+      <c r="D1056" s="52"/>
       <c r="E1056" s="29"/>
       <c r="F1056" s="1"/>
-      <c r="G1056" s="51"/>
-      <c r="H1056" s="51"/>
+      <c r="G1056" s="52"/>
+      <c r="H1056" s="52"/>
       <c r="I1056" s="1"/>
       <c r="J1056" s="1"/>
       <c r="K1056" s="1"/>
@@ -31204,11 +31204,11 @@
       <c r="A1057" s="29"/>
       <c r="B1057" s="1"/>
       <c r="C1057" s="1"/>
-      <c r="D1057" s="53"/>
+      <c r="D1057" s="52"/>
       <c r="E1057" s="29"/>
       <c r="F1057" s="1"/>
-      <c r="G1057" s="51"/>
-      <c r="H1057" s="51"/>
+      <c r="G1057" s="52"/>
+      <c r="H1057" s="52"/>
       <c r="I1057" s="1"/>
       <c r="J1057" s="1"/>
       <c r="K1057" s="1"/>
@@ -31231,11 +31231,11 @@
       <c r="A1058" s="29"/>
       <c r="B1058" s="1"/>
       <c r="C1058" s="1"/>
-      <c r="D1058" s="53"/>
+      <c r="D1058" s="52"/>
       <c r="E1058" s="29"/>
       <c r="F1058" s="1"/>
-      <c r="G1058" s="51"/>
-      <c r="H1058" s="51"/>
+      <c r="G1058" s="52"/>
+      <c r="H1058" s="52"/>
       <c r="I1058" s="1"/>
       <c r="J1058" s="1"/>
       <c r="K1058" s="1"/>
@@ -31258,11 +31258,11 @@
       <c r="A1059" s="29"/>
       <c r="B1059" s="1"/>
       <c r="C1059" s="1"/>
-      <c r="D1059" s="53"/>
+      <c r="D1059" s="52"/>
       <c r="E1059" s="29"/>
       <c r="F1059" s="1"/>
-      <c r="G1059" s="51"/>
-      <c r="H1059" s="51"/>
+      <c r="G1059" s="52"/>
+      <c r="H1059" s="52"/>
       <c r="I1059" s="1"/>
       <c r="J1059" s="1"/>
       <c r="K1059" s="1"/>
@@ -31285,11 +31285,11 @@
       <c r="A1060" s="29"/>
       <c r="B1060" s="1"/>
       <c r="C1060" s="1"/>
-      <c r="D1060" s="53"/>
+      <c r="D1060" s="52"/>
       <c r="E1060" s="29"/>
       <c r="F1060" s="1"/>
-      <c r="G1060" s="51"/>
-      <c r="H1060" s="51"/>
+      <c r="G1060" s="52"/>
+      <c r="H1060" s="52"/>
       <c r="I1060" s="1"/>
       <c r="J1060" s="1"/>
       <c r="K1060" s="1"/>
@@ -31312,11 +31312,11 @@
       <c r="A1061" s="29"/>
       <c r="B1061" s="1"/>
       <c r="C1061" s="1"/>
-      <c r="D1061" s="53"/>
+      <c r="D1061" s="52"/>
       <c r="E1061" s="29"/>
       <c r="F1061" s="1"/>
-      <c r="G1061" s="51"/>
-      <c r="H1061" s="51"/>
+      <c r="G1061" s="52"/>
+      <c r="H1061" s="52"/>
       <c r="I1061" s="1"/>
       <c r="J1061" s="1"/>
       <c r="K1061" s="1"/>
@@ -31339,11 +31339,11 @@
       <c r="A1062" s="29"/>
       <c r="B1062" s="1"/>
       <c r="C1062" s="1"/>
-      <c r="D1062" s="53"/>
+      <c r="D1062" s="52"/>
       <c r="E1062" s="29"/>
       <c r="F1062" s="1"/>
-      <c r="G1062" s="51"/>
-      <c r="H1062" s="51"/>
+      <c r="G1062" s="52"/>
+      <c r="H1062" s="52"/>
       <c r="I1062" s="1"/>
       <c r="J1062" s="1"/>
       <c r="K1062" s="1"/>
@@ -31366,11 +31366,11 @@
       <c r="A1063" s="29"/>
       <c r="B1063" s="1"/>
       <c r="C1063" s="1"/>
-      <c r="D1063" s="53"/>
+      <c r="D1063" s="52"/>
       <c r="E1063" s="29"/>
       <c r="F1063" s="1"/>
-      <c r="G1063" s="51"/>
-      <c r="H1063" s="51"/>
+      <c r="G1063" s="52"/>
+      <c r="H1063" s="52"/>
       <c r="I1063" s="1"/>
       <c r="J1063" s="1"/>
       <c r="K1063" s="1"/>
@@ -31393,11 +31393,11 @@
       <c r="A1064" s="29"/>
       <c r="B1064" s="1"/>
       <c r="C1064" s="1"/>
-      <c r="D1064" s="53"/>
+      <c r="D1064" s="52"/>
       <c r="E1064" s="29"/>
       <c r="F1064" s="1"/>
-      <c r="G1064" s="51"/>
-      <c r="H1064" s="51"/>
+      <c r="G1064" s="52"/>
+      <c r="H1064" s="52"/>
       <c r="I1064" s="1"/>
       <c r="J1064" s="1"/>
       <c r="K1064" s="1"/>
@@ -31420,11 +31420,11 @@
       <c r="A1065" s="29"/>
       <c r="B1065" s="1"/>
       <c r="C1065" s="1"/>
-      <c r="D1065" s="53"/>
+      <c r="D1065" s="52"/>
       <c r="E1065" s="29"/>
       <c r="F1065" s="1"/>
-      <c r="G1065" s="51"/>
-      <c r="H1065" s="51"/>
+      <c r="G1065" s="52"/>
+      <c r="H1065" s="52"/>
       <c r="I1065" s="1"/>
       <c r="J1065" s="1"/>
       <c r="K1065" s="1"/>
@@ -31447,11 +31447,11 @@
       <c r="A1066" s="29"/>
       <c r="B1066" s="1"/>
       <c r="C1066" s="1"/>
-      <c r="D1066" s="53"/>
+      <c r="D1066" s="52"/>
       <c r="E1066" s="29"/>
       <c r="F1066" s="1"/>
-      <c r="G1066" s="51"/>
-      <c r="H1066" s="51"/>
+      <c r="G1066" s="52"/>
+      <c r="H1066" s="52"/>
       <c r="I1066" s="1"/>
       <c r="J1066" s="1"/>
       <c r="K1066" s="1"/>
@@ -31474,11 +31474,11 @@
       <c r="A1067" s="29"/>
       <c r="B1067" s="1"/>
       <c r="C1067" s="1"/>
-      <c r="D1067" s="53"/>
+      <c r="D1067" s="52"/>
       <c r="E1067" s="29"/>
       <c r="F1067" s="1"/>
-      <c r="G1067" s="51"/>
-      <c r="H1067" s="51"/>
+      <c r="G1067" s="52"/>
+      <c r="H1067" s="52"/>
       <c r="I1067" s="1"/>
       <c r="J1067" s="1"/>
       <c r="K1067" s="1"/>
@@ -31501,11 +31501,11 @@
       <c r="A1068" s="29"/>
       <c r="B1068" s="1"/>
       <c r="C1068" s="1"/>
-      <c r="D1068" s="53"/>
+      <c r="D1068" s="52"/>
       <c r="E1068" s="29"/>
       <c r="F1068" s="1"/>
-      <c r="G1068" s="51"/>
-      <c r="H1068" s="51"/>
+      <c r="G1068" s="52"/>
+      <c r="H1068" s="52"/>
       <c r="I1068" s="1"/>
       <c r="J1068" s="1"/>
       <c r="K1068" s="1"/>
@@ -31528,11 +31528,11 @@
       <c r="A1069" s="29"/>
       <c r="B1069" s="1"/>
       <c r="C1069" s="1"/>
-      <c r="D1069" s="53"/>
+      <c r="D1069" s="52"/>
       <c r="E1069" s="29"/>
       <c r="F1069" s="1"/>
-      <c r="G1069" s="51"/>
-      <c r="H1069" s="51"/>
+      <c r="G1069" s="52"/>
+      <c r="H1069" s="52"/>
       <c r="I1069" s="1"/>
       <c r="J1069" s="1"/>
       <c r="K1069" s="1"/>
@@ -31555,11 +31555,11 @@
       <c r="A1070" s="29"/>
       <c r="B1070" s="1"/>
       <c r="C1070" s="1"/>
-      <c r="D1070" s="53"/>
+      <c r="D1070" s="52"/>
       <c r="E1070" s="29"/>
       <c r="F1070" s="1"/>
-      <c r="G1070" s="51"/>
-      <c r="H1070" s="51"/>
+      <c r="G1070" s="52"/>
+      <c r="H1070" s="52"/>
       <c r="I1070" s="1"/>
       <c r="J1070" s="1"/>
       <c r="K1070" s="1"/>
@@ -31582,11 +31582,11 @@
       <c r="A1071" s="29"/>
       <c r="B1071" s="1"/>
       <c r="C1071" s="1"/>
-      <c r="D1071" s="53"/>
+      <c r="D1071" s="52"/>
       <c r="E1071" s="29"/>
       <c r="F1071" s="1"/>
-      <c r="G1071" s="51"/>
-      <c r="H1071" s="51"/>
+      <c r="G1071" s="52"/>
+      <c r="H1071" s="52"/>
       <c r="I1071" s="1"/>
       <c r="J1071" s="1"/>
       <c r="K1071" s="1"/>
@@ -31609,11 +31609,11 @@
       <c r="A1072" s="29"/>
       <c r="B1072" s="1"/>
       <c r="C1072" s="1"/>
-      <c r="D1072" s="53"/>
+      <c r="D1072" s="52"/>
       <c r="E1072" s="29"/>
       <c r="F1072" s="1"/>
-      <c r="G1072" s="51"/>
-      <c r="H1072" s="51"/>
+      <c r="G1072" s="52"/>
+      <c r="H1072" s="52"/>
       <c r="I1072" s="1"/>
       <c r="J1072" s="1"/>
       <c r="K1072" s="1"/>
@@ -31636,11 +31636,11 @@
       <c r="A1073" s="29"/>
       <c r="B1073" s="1"/>
       <c r="C1073" s="1"/>
-      <c r="D1073" s="53"/>
+      <c r="D1073" s="52"/>
       <c r="E1073" s="29"/>
       <c r="F1073" s="1"/>
-      <c r="G1073" s="51"/>
-      <c r="H1073" s="51"/>
+      <c r="G1073" s="52"/>
+      <c r="H1073" s="52"/>
       <c r="I1073" s="1"/>
       <c r="J1073" s="1"/>
       <c r="K1073" s="1"/>
@@ -31663,11 +31663,11 @@
       <c r="A1074" s="29"/>
       <c r="B1074" s="1"/>
       <c r="C1074" s="1"/>
-      <c r="D1074" s="53"/>
+      <c r="D1074" s="52"/>
       <c r="E1074" s="29"/>
       <c r="F1074" s="1"/>
-      <c r="G1074" s="51"/>
-      <c r="H1074" s="51"/>
+      <c r="G1074" s="52"/>
+      <c r="H1074" s="52"/>
       <c r="I1074" s="1"/>
       <c r="J1074" s="1"/>
       <c r="K1074" s="1"/>
@@ -31690,11 +31690,11 @@
       <c r="A1075" s="29"/>
       <c r="B1075" s="1"/>
       <c r="C1075" s="1"/>
-      <c r="D1075" s="53"/>
+      <c r="D1075" s="52"/>
       <c r="E1075" s="29"/>
       <c r="F1075" s="1"/>
-      <c r="G1075" s="51"/>
-      <c r="H1075" s="51"/>
+      <c r="G1075" s="52"/>
+      <c r="H1075" s="52"/>
       <c r="I1075" s="1"/>
       <c r="J1075" s="1"/>
       <c r="K1075" s="1"/>
@@ -31717,11 +31717,11 @@
       <c r="A1076" s="29"/>
       <c r="B1076" s="1"/>
       <c r="C1076" s="1"/>
-      <c r="D1076" s="53"/>
+      <c r="D1076" s="52"/>
       <c r="E1076" s="29"/>
       <c r="F1076" s="1"/>
-      <c r="G1076" s="51"/>
-      <c r="H1076" s="51"/>
+      <c r="G1076" s="52"/>
+      <c r="H1076" s="52"/>
       <c r="I1076" s="1"/>
       <c r="J1076" s="1"/>
       <c r="K1076" s="1"/>
@@ -31744,11 +31744,11 @@
       <c r="A1077" s="29"/>
       <c r="B1077" s="1"/>
       <c r="C1077" s="1"/>
-      <c r="D1077" s="53"/>
+      <c r="D1077" s="52"/>
       <c r="E1077" s="29"/>
       <c r="F1077" s="1"/>
-      <c r="G1077" s="51"/>
-      <c r="H1077" s="51"/>
+      <c r="G1077" s="52"/>
+      <c r="H1077" s="52"/>
       <c r="I1077" s="1"/>
       <c r="J1077" s="1"/>
       <c r="K1077" s="1"/>
@@ -31771,11 +31771,11 @@
       <c r="A1078" s="29"/>
       <c r="B1078" s="1"/>
       <c r="C1078" s="1"/>
-      <c r="D1078" s="53"/>
+      <c r="D1078" s="52"/>
       <c r="E1078" s="29"/>
       <c r="F1078" s="1"/>
-      <c r="G1078" s="51"/>
-      <c r="H1078" s="51"/>
+      <c r="G1078" s="52"/>
+      <c r="H1078" s="52"/>
       <c r="I1078" s="1"/>
       <c r="J1078" s="1"/>
       <c r="K1078" s="1"/>
@@ -31798,11 +31798,11 @@
       <c r="A1079" s="29"/>
       <c r="B1079" s="1"/>
       <c r="C1079" s="1"/>
-      <c r="D1079" s="53"/>
+      <c r="D1079" s="52"/>
       <c r="E1079" s="29"/>
       <c r="F1079" s="1"/>
-      <c r="G1079" s="51"/>
-      <c r="H1079" s="51"/>
+      <c r="G1079" s="52"/>
+      <c r="H1079" s="52"/>
       <c r="I1079" s="1"/>
       <c r="J1079" s="1"/>
       <c r="K1079" s="1"/>
@@ -31825,11 +31825,11 @@
       <c r="A1080" s="29"/>
       <c r="B1080" s="1"/>
       <c r="C1080" s="1"/>
-      <c r="D1080" s="53"/>
+      <c r="D1080" s="52"/>
       <c r="E1080" s="29"/>
       <c r="F1080" s="1"/>
-      <c r="G1080" s="51"/>
-      <c r="H1080" s="51"/>
+      <c r="G1080" s="52"/>
+      <c r="H1080" s="52"/>
       <c r="I1080" s="1"/>
       <c r="J1080" s="1"/>
       <c r="K1080" s="1"/>
@@ -31852,11 +31852,11 @@
       <c r="A1081" s="29"/>
       <c r="B1081" s="1"/>
       <c r="C1081" s="1"/>
-      <c r="D1081" s="53"/>
+      <c r="D1081" s="52"/>
       <c r="E1081" s="29"/>
       <c r="F1081" s="1"/>
-      <c r="G1081" s="51"/>
-      <c r="H1081" s="51"/>
+      <c r="G1081" s="52"/>
+      <c r="H1081" s="52"/>
       <c r="I1081" s="1"/>
       <c r="J1081" s="1"/>
       <c r="K1081" s="1"/>
@@ -31879,11 +31879,11 @@
       <c r="A1082" s="29"/>
       <c r="B1082" s="1"/>
       <c r="C1082" s="1"/>
-      <c r="D1082" s="53"/>
+      <c r="D1082" s="52"/>
       <c r="E1082" s="29"/>
       <c r="F1082" s="1"/>
-      <c r="G1082" s="51"/>
-      <c r="H1082" s="51"/>
+      <c r="G1082" s="52"/>
+      <c r="H1082" s="52"/>
       <c r="I1082" s="1"/>
       <c r="J1082" s="1"/>
       <c r="K1082" s="1"/>
@@ -31906,11 +31906,11 @@
       <c r="A1083" s="29"/>
       <c r="B1083" s="1"/>
       <c r="C1083" s="1"/>
-      <c r="D1083" s="53"/>
+      <c r="D1083" s="52"/>
       <c r="E1083" s="29"/>
       <c r="F1083" s="1"/>
-      <c r="G1083" s="51"/>
-      <c r="H1083" s="51"/>
+      <c r="G1083" s="52"/>
+      <c r="H1083" s="52"/>
       <c r="I1083" s="1"/>
       <c r="J1083" s="1"/>
       <c r="K1083" s="1"/>
@@ -31933,11 +31933,11 @@
       <c r="A1084" s="29"/>
       <c r="B1084" s="1"/>
       <c r="C1084" s="1"/>
-      <c r="D1084" s="53"/>
+      <c r="D1084" s="52"/>
       <c r="E1084" s="29"/>
       <c r="F1084" s="1"/>
-      <c r="G1084" s="51"/>
-      <c r="H1084" s="51"/>
+      <c r="G1084" s="52"/>
+      <c r="H1084" s="52"/>
       <c r="I1084" s="1"/>
       <c r="J1084" s="1"/>
       <c r="K1084" s="1"/>
@@ -31960,11 +31960,11 @@
       <c r="A1085" s="29"/>
       <c r="B1085" s="1"/>
       <c r="C1085" s="1"/>
-      <c r="D1085" s="53"/>
+      <c r="D1085" s="52"/>
       <c r="E1085" s="29"/>
       <c r="F1085" s="1"/>
-      <c r="G1085" s="51"/>
-      <c r="H1085" s="51"/>
+      <c r="G1085" s="52"/>
+      <c r="H1085" s="52"/>
       <c r="I1085" s="1"/>
       <c r="J1085" s="1"/>
       <c r="K1085" s="1"/>
@@ -31987,11 +31987,11 @@
       <c r="A1086" s="29"/>
       <c r="B1086" s="1"/>
       <c r="C1086" s="1"/>
-      <c r="D1086" s="53"/>
+      <c r="D1086" s="52"/>
       <c r="E1086" s="29"/>
       <c r="F1086" s="1"/>
-      <c r="G1086" s="51"/>
-      <c r="H1086" s="51"/>
+      <c r="G1086" s="52"/>
+      <c r="H1086" s="52"/>
       <c r="I1086" s="1"/>
       <c r="J1086" s="1"/>
       <c r="K1086" s="1"/>
@@ -32014,11 +32014,11 @@
       <c r="A1087" s="29"/>
       <c r="B1087" s="1"/>
       <c r="C1087" s="1"/>
-      <c r="D1087" s="53"/>
+      <c r="D1087" s="52"/>
       <c r="E1087" s="29"/>
       <c r="F1087" s="1"/>
-      <c r="G1087" s="51"/>
-      <c r="H1087" s="51"/>
+      <c r="G1087" s="52"/>
+      <c r="H1087" s="52"/>
       <c r="I1087" s="1"/>
       <c r="J1087" s="1"/>
       <c r="K1087" s="1"/>
@@ -32041,11 +32041,11 @@
       <c r="A1088" s="29"/>
       <c r="B1088" s="1"/>
       <c r="C1088" s="1"/>
-      <c r="D1088" s="53"/>
+      <c r="D1088" s="52"/>
       <c r="E1088" s="29"/>
       <c r="F1088" s="1"/>
-      <c r="G1088" s="51"/>
-      <c r="H1088" s="51"/>
+      <c r="G1088" s="52"/>
+      <c r="H1088" s="52"/>
       <c r="I1088" s="1"/>
       <c r="J1088" s="1"/>
       <c r="K1088" s="1"/>
@@ -32068,11 +32068,11 @@
       <c r="A1089" s="29"/>
       <c r="B1089" s="1"/>
       <c r="C1089" s="1"/>
-      <c r="D1089" s="53"/>
+      <c r="D1089" s="52"/>
       <c r="E1089" s="29"/>
       <c r="F1089" s="1"/>
-      <c r="G1089" s="51"/>
-      <c r="H1089" s="51"/>
+      <c r="G1089" s="52"/>
+      <c r="H1089" s="52"/>
       <c r="I1089" s="1"/>
       <c r="J1089" s="1"/>
       <c r="K1089" s="1"/>
@@ -32095,11 +32095,11 @@
       <c r="A1090" s="29"/>
       <c r="B1090" s="1"/>
       <c r="C1090" s="1"/>
-      <c r="D1090" s="53"/>
+      <c r="D1090" s="52"/>
       <c r="E1090" s="29"/>
       <c r="F1090" s="1"/>
-      <c r="G1090" s="51"/>
-      <c r="H1090" s="51"/>
+      <c r="G1090" s="52"/>
+      <c r="H1090" s="52"/>
       <c r="I1090" s="1"/>
       <c r="J1090" s="1"/>
       <c r="K1090" s="1"/>
@@ -32122,11 +32122,11 @@
       <c r="A1091" s="29"/>
       <c r="B1091" s="1"/>
       <c r="C1091" s="1"/>
-      <c r="D1091" s="53"/>
+      <c r="D1091" s="52"/>
       <c r="E1091" s="29"/>
       <c r="F1091" s="1"/>
-      <c r="G1091" s="51"/>
-      <c r="H1091" s="51"/>
+      <c r="G1091" s="52"/>
+      <c r="H1091" s="52"/>
       <c r="I1091" s="1"/>
       <c r="J1091" s="1"/>
       <c r="K1091" s="1"/>
@@ -32149,11 +32149,11 @@
       <c r="A1092" s="29"/>
       <c r="B1092" s="1"/>
       <c r="C1092" s="1"/>
-      <c r="D1092" s="53"/>
+      <c r="D1092" s="52"/>
       <c r="E1092" s="29"/>
       <c r="F1092" s="1"/>
-      <c r="G1092" s="51"/>
-      <c r="H1092" s="51"/>
+      <c r="G1092" s="52"/>
+      <c r="H1092" s="52"/>
       <c r="I1092" s="1"/>
       <c r="J1092" s="1"/>
       <c r="K1092" s="1"/>
@@ -32176,11 +32176,11 @@
       <c r="A1093" s="29"/>
       <c r="B1093" s="1"/>
       <c r="C1093" s="1"/>
-      <c r="D1093" s="53"/>
+      <c r="D1093" s="52"/>
       <c r="E1093" s="29"/>
       <c r="F1093" s="1"/>
-      <c r="G1093" s="51"/>
-      <c r="H1093" s="51"/>
+      <c r="G1093" s="52"/>
+      <c r="H1093" s="52"/>
       <c r="I1093" s="1"/>
       <c r="J1093" s="1"/>
       <c r="K1093" s="1"/>
@@ -32203,11 +32203,11 @@
       <c r="A1094" s="29"/>
       <c r="B1094" s="1"/>
       <c r="C1094" s="1"/>
-      <c r="D1094" s="53"/>
+      <c r="D1094" s="52"/>
       <c r="E1094" s="29"/>
       <c r="F1094" s="1"/>
-      <c r="G1094" s="51"/>
-      <c r="H1094" s="51"/>
+      <c r="G1094" s="52"/>
+      <c r="H1094" s="52"/>
       <c r="I1094" s="1"/>
       <c r="J1094" s="1"/>
       <c r="K1094" s="1"/>
@@ -32230,11 +32230,11 @@
       <c r="A1095" s="29"/>
       <c r="B1095" s="1"/>
       <c r="C1095" s="1"/>
-      <c r="D1095" s="53"/>
+      <c r="D1095" s="52"/>
       <c r="E1095" s="29"/>
       <c r="F1095" s="1"/>
-      <c r="G1095" s="51"/>
-      <c r="H1095" s="51"/>
+      <c r="G1095" s="52"/>
+      <c r="H1095" s="52"/>
       <c r="I1095" s="1"/>
       <c r="J1095" s="1"/>
       <c r="K1095" s="1"/>
@@ -32257,11 +32257,11 @@
       <c r="A1096" s="29"/>
       <c r="B1096" s="1"/>
       <c r="C1096" s="1"/>
-      <c r="D1096" s="53"/>
+      <c r="D1096" s="52"/>
       <c r="E1096" s="29"/>
       <c r="F1096" s="1"/>
-      <c r="G1096" s="51"/>
-      <c r="H1096" s="51"/>
+      <c r="G1096" s="52"/>
+      <c r="H1096" s="52"/>
       <c r="I1096" s="1"/>
       <c r="J1096" s="1"/>
       <c r="K1096" s="1"/>
@@ -32284,11 +32284,11 @@
       <c r="A1097" s="29"/>
       <c r="B1097" s="1"/>
       <c r="C1097" s="1"/>
-      <c r="D1097" s="53"/>
+      <c r="D1097" s="52"/>
       <c r="E1097" s="29"/>
       <c r="F1097" s="1"/>
-      <c r="G1097" s="51"/>
-      <c r="H1097" s="51"/>
+      <c r="G1097" s="52"/>
+      <c r="H1097" s="52"/>
       <c r="I1097" s="1"/>
       <c r="J1097" s="1"/>
       <c r="K1097" s="1"/>
@@ -32311,11 +32311,11 @@
       <c r="A1098" s="29"/>
       <c r="B1098" s="1"/>
       <c r="C1098" s="1"/>
-      <c r="D1098" s="53"/>
+      <c r="D1098" s="52"/>
       <c r="E1098" s="29"/>
       <c r="F1098" s="1"/>
-      <c r="G1098" s="51"/>
-      <c r="H1098" s="51"/>
+      <c r="G1098" s="52"/>
+      <c r="H1098" s="52"/>
       <c r="I1098" s="1"/>
       <c r="J1098" s="1"/>
       <c r="K1098" s="1"/>
@@ -32338,11 +32338,11 @@
       <c r="A1099" s="29"/>
       <c r="B1099" s="1"/>
       <c r="C1099" s="1"/>
-      <c r="D1099" s="53"/>
+      <c r="D1099" s="52"/>
       <c r="E1099" s="29"/>
       <c r="F1099" s="1"/>
-      <c r="G1099" s="51"/>
-      <c r="H1099" s="51"/>
+      <c r="G1099" s="52"/>
+      <c r="H1099" s="52"/>
       <c r="I1099" s="1"/>
       <c r="J1099" s="1"/>
       <c r="K1099" s="1"/>
@@ -32365,11 +32365,11 @@
       <c r="A1100" s="29"/>
       <c r="B1100" s="1"/>
       <c r="C1100" s="1"/>
-      <c r="D1100" s="53"/>
+      <c r="D1100" s="52"/>
       <c r="E1100" s="29"/>
       <c r="F1100" s="1"/>
-      <c r="G1100" s="51"/>
-      <c r="H1100" s="51"/>
+      <c r="G1100" s="52"/>
+      <c r="H1100" s="52"/>
       <c r="I1100" s="1"/>
       <c r="J1100" s="1"/>
       <c r="K1100" s="1"/>
@@ -32392,11 +32392,11 @@
       <c r="A1101" s="29"/>
       <c r="B1101" s="1"/>
       <c r="C1101" s="1"/>
-      <c r="D1101" s="53"/>
+      <c r="D1101" s="52"/>
       <c r="E1101" s="29"/>
       <c r="F1101" s="1"/>
-      <c r="G1101" s="51"/>
-      <c r="H1101" s="51"/>
+      <c r="G1101" s="52"/>
+      <c r="H1101" s="52"/>
       <c r="I1101" s="1"/>
       <c r="J1101" s="1"/>
       <c r="K1101" s="1"/>
@@ -32419,11 +32419,11 @@
       <c r="A1102" s="29"/>
       <c r="B1102" s="1"/>
       <c r="C1102" s="1"/>
-      <c r="D1102" s="53"/>
+      <c r="D1102" s="52"/>
       <c r="E1102" s="29"/>
       <c r="F1102" s="1"/>
-      <c r="G1102" s="51"/>
-      <c r="H1102" s="51"/>
+      <c r="G1102" s="52"/>
+      <c r="H1102" s="52"/>
       <c r="I1102" s="1"/>
       <c r="J1102" s="1"/>
       <c r="K1102" s="1"/>
@@ -32446,11 +32446,11 @@
       <c r="A1103" s="29"/>
       <c r="B1103" s="1"/>
       <c r="C1103" s="1"/>
-      <c r="D1103" s="53"/>
+      <c r="D1103" s="52"/>
       <c r="E1103" s="29"/>
       <c r="F1103" s="1"/>
-      <c r="G1103" s="51"/>
-      <c r="H1103" s="51"/>
+      <c r="G1103" s="52"/>
+      <c r="H1103" s="52"/>
       <c r="I1103" s="1"/>
       <c r="J1103" s="1"/>
       <c r="K1103" s="1"/>
@@ -32473,11 +32473,11 @@
       <c r="A1104" s="29"/>
       <c r="B1104" s="1"/>
       <c r="C1104" s="1"/>
-      <c r="D1104" s="53"/>
+      <c r="D1104" s="52"/>
       <c r="E1104" s="29"/>
       <c r="F1104" s="1"/>
-      <c r="G1104" s="51"/>
-      <c r="H1104" s="51"/>
+      <c r="G1104" s="52"/>
+      <c r="H1104" s="52"/>
       <c r="I1104" s="1"/>
       <c r="J1104" s="1"/>
       <c r="K1104" s="1"/>
@@ -32500,11 +32500,11 @@
       <c r="A1105" s="29"/>
       <c r="B1105" s="1"/>
       <c r="C1105" s="1"/>
-      <c r="D1105" s="53"/>
+      <c r="D1105" s="52"/>
       <c r="E1105" s="29"/>
       <c r="F1105" s="1"/>
-      <c r="G1105" s="51"/>
-      <c r="H1105" s="51"/>
+      <c r="G1105" s="52"/>
+      <c r="H1105" s="52"/>
       <c r="I1105" s="1"/>
       <c r="J1105" s="1"/>
       <c r="K1105" s="1"/>
@@ -32527,11 +32527,11 @@
       <c r="A1106" s="29"/>
       <c r="B1106" s="1"/>
       <c r="C1106" s="1"/>
-      <c r="D1106" s="53"/>
+      <c r="D1106" s="52"/>
       <c r="E1106" s="29"/>
       <c r="F1106" s="1"/>
-      <c r="G1106" s="51"/>
-      <c r="H1106" s="51"/>
+      <c r="G1106" s="52"/>
+      <c r="H1106" s="52"/>
       <c r="I1106" s="1"/>
       <c r="J1106" s="1"/>
       <c r="K1106" s="1"/>
@@ -32554,11 +32554,11 @@
       <c r="A1107" s="29"/>
       <c r="B1107" s="1"/>
       <c r="C1107" s="1"/>
-      <c r="D1107" s="53"/>
+      <c r="D1107" s="52"/>
       <c r="E1107" s="29"/>
       <c r="F1107" s="1"/>
-      <c r="G1107" s="51"/>
-      <c r="H1107" s="51"/>
+      <c r="G1107" s="52"/>
+      <c r="H1107" s="52"/>
       <c r="I1107" s="1"/>
       <c r="J1107" s="1"/>
       <c r="K1107" s="1"/>
@@ -32581,11 +32581,11 @@
       <c r="A1108" s="29"/>
       <c r="B1108" s="1"/>
       <c r="C1108" s="1"/>
-      <c r="D1108" s="53"/>
+      <c r="D1108" s="52"/>
       <c r="E1108" s="29"/>
       <c r="F1108" s="1"/>
-      <c r="G1108" s="51"/>
-      <c r="H1108" s="51"/>
+      <c r="G1108" s="52"/>
+      <c r="H1108" s="52"/>
       <c r="I1108" s="1"/>
       <c r="J1108" s="1"/>
       <c r="K1108" s="1"/>
@@ -32608,11 +32608,11 @@
       <c r="A1109" s="29"/>
       <c r="B1109" s="1"/>
       <c r="C1109" s="1"/>
-      <c r="D1109" s="53"/>
+      <c r="D1109" s="52"/>
       <c r="E1109" s="29"/>
       <c r="F1109" s="1"/>
-      <c r="G1109" s="51"/>
-      <c r="H1109" s="51"/>
+      <c r="G1109" s="52"/>
+      <c r="H1109" s="52"/>
       <c r="I1109" s="1"/>
       <c r="J1109" s="1"/>
       <c r="K1109" s="1"/>
@@ -32635,11 +32635,11 @@
       <c r="A1110" s="29"/>
       <c r="B1110" s="1"/>
       <c r="C1110" s="1"/>
-      <c r="D1110" s="53"/>
+      <c r="D1110" s="52"/>
       <c r="E1110" s="29"/>
       <c r="F1110" s="1"/>
-      <c r="G1110" s="51"/>
-      <c r="H1110" s="51"/>
+      <c r="G1110" s="52"/>
+      <c r="H1110" s="52"/>
       <c r="I1110" s="1"/>
       <c r="J1110" s="1"/>
       <c r="K1110" s="1"/>
@@ -32662,11 +32662,11 @@
       <c r="A1111" s="29"/>
       <c r="B1111" s="1"/>
       <c r="C1111" s="1"/>
-      <c r="D1111" s="53"/>
+      <c r="D1111" s="52"/>
       <c r="E1111" s="29"/>
       <c r="F1111" s="1"/>
-      <c r="G1111" s="51"/>
-      <c r="H1111" s="51"/>
+      <c r="G1111" s="52"/>
+      <c r="H1111" s="52"/>
       <c r="I1111" s="1"/>
       <c r="J1111" s="1"/>
       <c r="K1111" s="1"/>
@@ -32689,11 +32689,11 @@
       <c r="A1112" s="29"/>
       <c r="B1112" s="1"/>
       <c r="C1112" s="1"/>
-      <c r="D1112" s="53"/>
+      <c r="D1112" s="52"/>
       <c r="E1112" s="29"/>
       <c r="F1112" s="1"/>
-      <c r="G1112" s="51"/>
-      <c r="H1112" s="51"/>
+      <c r="G1112" s="52"/>
+      <c r="H1112" s="52"/>
       <c r="I1112" s="1"/>
       <c r="J1112" s="1"/>
       <c r="K1112" s="1"/>
@@ -32716,11 +32716,11 @@
       <c r="A1113" s="29"/>
       <c r="B1113" s="1"/>
       <c r="C1113" s="1"/>
-      <c r="D1113" s="53"/>
+      <c r="D1113" s="52"/>
       <c r="E1113" s="29"/>
       <c r="F1113" s="1"/>
-      <c r="G1113" s="51"/>
-      <c r="H1113" s="51"/>
+      <c r="G1113" s="52"/>
+      <c r="H1113" s="52"/>
       <c r="I1113" s="1"/>
       <c r="J1113" s="1"/>
       <c r="K1113" s="1"/>
@@ -32743,11 +32743,11 @@
       <c r="A1114" s="29"/>
       <c r="B1114" s="1"/>
       <c r="C1114" s="1"/>
-      <c r="D1114" s="53"/>
+      <c r="D1114" s="52"/>
       <c r="E1114" s="29"/>
       <c r="F1114" s="1"/>
-      <c r="G1114" s="51"/>
-      <c r="H1114" s="51"/>
+      <c r="G1114" s="52"/>
+      <c r="H1114" s="52"/>
       <c r="I1114" s="1"/>
       <c r="J1114" s="1"/>
       <c r="K1114" s="1"/>
@@ -32770,11 +32770,11 @@
       <c r="A1115" s="29"/>
       <c r="B1115" s="1"/>
       <c r="C1115" s="1"/>
-      <c r="D1115" s="53"/>
+      <c r="D1115" s="52"/>
       <c r="E1115" s="29"/>
       <c r="F1115" s="1"/>
-      <c r="G1115" s="51"/>
-      <c r="H1115" s="51"/>
+      <c r="G1115" s="52"/>
+      <c r="H1115" s="52"/>
       <c r="I1115" s="1"/>
       <c r="J1115" s="1"/>
       <c r="K1115" s="1"/>
@@ -32797,11 +32797,11 @@
       <c r="A1116" s="29"/>
       <c r="B1116" s="1"/>
       <c r="C1116" s="1"/>
-      <c r="D1116" s="53"/>
+      <c r="D1116" s="52"/>
       <c r="E1116" s="29"/>
       <c r="F1116" s="1"/>
-      <c r="G1116" s="51"/>
-      <c r="H1116" s="51"/>
+      <c r="G1116" s="52"/>
+      <c r="H1116" s="52"/>
       <c r="I1116" s="1"/>
       <c r="J1116" s="1"/>
       <c r="K1116" s="1"/>
@@ -32824,11 +32824,11 @@
       <c r="A1117" s="29"/>
       <c r="B1117" s="1"/>
       <c r="C1117" s="1"/>
-      <c r="D1117" s="53"/>
+      <c r="D1117" s="52"/>
       <c r="E1117" s="29"/>
       <c r="F1117" s="1"/>
-      <c r="G1117" s="51"/>
-      <c r="H1117" s="51"/>
+      <c r="G1117" s="52"/>
+      <c r="H1117" s="52"/>
       <c r="I1117" s="1"/>
       <c r="J1117" s="1"/>
       <c r="K1117" s="1"/>
@@ -32851,11 +32851,11 @@
       <c r="A1118" s="29"/>
       <c r="B1118" s="1"/>
       <c r="C1118" s="1"/>
-      <c r="D1118" s="53"/>
+      <c r="D1118" s="52"/>
       <c r="E1118" s="29"/>
       <c r="F1118" s="1"/>
-      <c r="G1118" s="51"/>
-      <c r="H1118" s="51"/>
+      <c r="G1118" s="52"/>
+      <c r="H1118" s="52"/>
       <c r="I1118" s="1"/>
       <c r="J1118" s="1"/>
       <c r="K1118" s="1"/>
@@ -32878,11 +32878,11 @@
       <c r="A1119" s="29"/>
       <c r="B1119" s="1"/>
       <c r="C1119" s="1"/>
-      <c r="D1119" s="53"/>
+      <c r="D1119" s="52"/>
       <c r="E1119" s="29"/>
       <c r="F1119" s="1"/>
-      <c r="G1119" s="51"/>
-      <c r="H1119" s="51"/>
+      <c r="G1119" s="52"/>
+      <c r="H1119" s="52"/>
       <c r="I1119" s="1"/>
       <c r="J1119" s="1"/>
       <c r="K1119" s="1"/>
@@ -32905,11 +32905,11 @@
       <c r="A1120" s="29"/>
       <c r="B1120" s="1"/>
       <c r="C1120" s="1"/>
-      <c r="D1120" s="53"/>
+      <c r="D1120" s="52"/>
       <c r="E1120" s="29"/>
       <c r="F1120" s="1"/>
-      <c r="G1120" s="51"/>
-      <c r="H1120" s="51"/>
+      <c r="G1120" s="52"/>
+      <c r="H1120" s="52"/>
       <c r="I1120" s="1"/>
       <c r="J1120" s="1"/>
       <c r="K1120" s="1"/>
@@ -32932,11 +32932,11 @@
       <c r="A1121" s="29"/>
       <c r="B1121" s="1"/>
       <c r="C1121" s="1"/>
-      <c r="D1121" s="53"/>
+      <c r="D1121" s="52"/>
       <c r="E1121" s="29"/>
       <c r="F1121" s="1"/>
-      <c r="G1121" s="51"/>
-      <c r="H1121" s="51"/>
+      <c r="G1121" s="52"/>
+      <c r="H1121" s="52"/>
       <c r="I1121" s="1"/>
       <c r="J1121" s="1"/>
       <c r="K1121" s="1"/>
@@ -32959,11 +32959,11 @@
       <c r="A1122" s="29"/>
       <c r="B1122" s="1"/>
       <c r="C1122" s="1"/>
-      <c r="D1122" s="53"/>
+      <c r="D1122" s="52"/>
       <c r="E1122" s="29"/>
       <c r="F1122" s="1"/>
-      <c r="G1122" s="51"/>
-      <c r="H1122" s="51"/>
+      <c r="G1122" s="52"/>
+      <c r="H1122" s="52"/>
       <c r="I1122" s="1"/>
       <c r="J1122" s="1"/>
       <c r="K1122" s="1"/>
@@ -32986,11 +32986,11 @@
       <c r="A1123" s="29"/>
       <c r="B1123" s="1"/>
       <c r="C1123" s="1"/>
-      <c r="D1123" s="53"/>
+      <c r="D1123" s="52"/>
       <c r="E1123" s="29"/>
       <c r="F1123" s="1"/>
-      <c r="G1123" s="51"/>
-      <c r="H1123" s="51"/>
+      <c r="G1123" s="52"/>
+      <c r="H1123" s="52"/>
       <c r="I1123" s="1"/>
       <c r="J1123" s="1"/>
       <c r="K1123" s="1"/>
@@ -33013,11 +33013,11 @@
       <c r="A1124" s="29"/>
       <c r="B1124" s="1"/>
       <c r="C1124" s="1"/>
-      <c r="D1124" s="53"/>
+      <c r="D1124" s="52"/>
       <c r="E1124" s="29"/>
       <c r="F1124" s="1"/>
-      <c r="G1124" s="51"/>
-      <c r="H1124" s="51"/>
+      <c r="G1124" s="52"/>
+      <c r="H1124" s="52"/>
       <c r="I1124" s="1"/>
       <c r="J1124" s="1"/>
       <c r="K1124" s="1"/>
@@ -33040,11 +33040,11 @@
       <c r="A1125" s="29"/>
       <c r="B1125" s="1"/>
       <c r="C1125" s="1"/>
-      <c r="D1125" s="53"/>
+      <c r="D1125" s="52"/>
       <c r="E1125" s="29"/>
       <c r="F1125" s="1"/>
-      <c r="G1125" s="51"/>
-      <c r="H1125" s="51"/>
+      <c r="G1125" s="52"/>
+      <c r="H1125" s="52"/>
       <c r="I1125" s="1"/>
       <c r="J1125" s="1"/>
       <c r="K1125" s="1"/>
@@ -33067,11 +33067,11 @@
       <c r="A1126" s="29"/>
       <c r="B1126" s="1"/>
       <c r="C1126" s="1"/>
-      <c r="D1126" s="53"/>
+      <c r="D1126" s="52"/>
       <c r="E1126" s="29"/>
       <c r="F1126" s="1"/>
-      <c r="G1126" s="51"/>
-      <c r="H1126" s="51"/>
+      <c r="G1126" s="52"/>
+      <c r="H1126" s="52"/>
       <c r="I1126" s="1"/>
       <c r="J1126" s="1"/>
       <c r="K1126" s="1"/>
@@ -33094,11 +33094,11 @@
       <c r="A1127" s="29"/>
       <c r="B1127" s="1"/>
       <c r="C1127" s="1"/>
-      <c r="D1127" s="53"/>
+      <c r="D1127" s="52"/>
       <c r="E1127" s="29"/>
       <c r="F1127" s="1"/>
-      <c r="G1127" s="51"/>
-      <c r="H1127" s="51"/>
+      <c r="G1127" s="52"/>
+      <c r="H1127" s="52"/>
       <c r="I1127" s="1"/>
       <c r="J1127" s="1"/>
       <c r="K1127" s="1"/>
@@ -33121,11 +33121,11 @@
       <c r="A1128" s="29"/>
       <c r="B1128" s="1"/>
       <c r="C1128" s="1"/>
-      <c r="D1128" s="53"/>
+      <c r="D1128" s="52"/>
       <c r="E1128" s="29"/>
       <c r="F1128" s="1"/>
-      <c r="G1128" s="51"/>
-      <c r="H1128" s="51"/>
+      <c r="G1128" s="52"/>
+      <c r="H1128" s="52"/>
       <c r="I1128" s="1"/>
       <c r="J1128" s="1"/>
       <c r="K1128" s="1"/>
@@ -33148,11 +33148,11 @@
       <c r="A1129" s="29"/>
       <c r="B1129" s="1"/>
       <c r="C1129" s="1"/>
-      <c r="D1129" s="53"/>
+      <c r="D1129" s="52"/>
       <c r="E1129" s="29"/>
       <c r="F1129" s="1"/>
-      <c r="G1129" s="51"/>
-      <c r="H1129" s="51"/>
+      <c r="G1129" s="52"/>
+      <c r="H1129" s="52"/>
       <c r="I1129" s="1"/>
       <c r="J1129" s="1"/>
       <c r="K1129" s="1"/>
@@ -33175,11 +33175,11 @@
       <c r="A1130" s="29"/>
       <c r="B1130" s="1"/>
       <c r="C1130" s="1"/>
-      <c r="D1130" s="53"/>
+      <c r="D1130" s="52"/>
       <c r="E1130" s="29"/>
       <c r="F1130" s="1"/>
-      <c r="G1130" s="51"/>
-      <c r="H1130" s="51"/>
+      <c r="G1130" s="52"/>
+      <c r="H1130" s="52"/>
       <c r="I1130" s="1"/>
       <c r="J1130" s="1"/>
       <c r="K1130" s="1"/>
@@ -33202,11 +33202,11 @@
       <c r="A1131" s="29"/>
       <c r="B1131" s="1"/>
       <c r="C1131" s="1"/>
-      <c r="D1131" s="53"/>
+      <c r="D1131" s="52"/>
       <c r="E1131" s="29"/>
       <c r="F1131" s="1"/>
-      <c r="G1131" s="51"/>
-      <c r="H1131" s="51"/>
+      <c r="G1131" s="52"/>
+      <c r="H1131" s="52"/>
       <c r="I1131" s="1"/>
       <c r="J1131" s="1"/>
       <c r="K1131" s="1"/>
@@ -33229,11 +33229,11 @@
       <c r="A1132" s="29"/>
       <c r="B1132" s="1"/>
       <c r="C1132" s="1"/>
-      <c r="D1132" s="53"/>
+      <c r="D1132" s="52"/>
       <c r="E1132" s="29"/>
       <c r="F1132" s="1"/>
-      <c r="G1132" s="51"/>
-      <c r="H1132" s="51"/>
+      <c r="G1132" s="52"/>
+      <c r="H1132" s="52"/>
       <c r="I1132" s="1"/>
       <c r="J1132" s="1"/>
       <c r="K1132" s="1"/>
@@ -33256,11 +33256,11 @@
       <c r="A1133" s="29"/>
       <c r="B1133" s="1"/>
       <c r="C1133" s="1"/>
-      <c r="D1133" s="53"/>
+      <c r="D1133" s="52"/>
       <c r="E1133" s="29"/>
       <c r="F1133" s="1"/>
-      <c r="G1133" s="51"/>
-      <c r="H1133" s="51"/>
+      <c r="G1133" s="52"/>
+      <c r="H1133" s="52"/>
       <c r="I1133" s="1"/>
       <c r="J1133" s="1"/>
       <c r="K1133" s="1"/>
@@ -33283,11 +33283,11 @@
       <c r="A1134" s="29"/>
       <c r="B1134" s="1"/>
       <c r="C1134" s="1"/>
-      <c r="D1134" s="53"/>
+      <c r="D1134" s="52"/>
       <c r="E1134" s="29"/>
       <c r="F1134" s="1"/>
-      <c r="G1134" s="51"/>
-      <c r="H1134" s="51"/>
+      <c r="G1134" s="52"/>
+      <c r="H1134" s="52"/>
       <c r="I1134" s="1"/>
       <c r="J1134" s="1"/>
       <c r="K1134" s="1"/>
@@ -33310,11 +33310,11 @@
       <c r="A1135" s="29"/>
       <c r="B1135" s="1"/>
       <c r="C1135" s="1"/>
-      <c r="D1135" s="53"/>
+      <c r="D1135" s="52"/>
       <c r="E1135" s="29"/>
       <c r="F1135" s="1"/>
-      <c r="G1135" s="51"/>
-      <c r="H1135" s="51"/>
+      <c r="G1135" s="52"/>
+      <c r="H1135" s="52"/>
       <c r="I1135" s="1"/>
       <c r="J1135" s="1"/>
       <c r="K1135" s="1"/>
@@ -33337,11 +33337,11 @@
       <c r="A1136" s="29"/>
       <c r="B1136" s="1"/>
       <c r="C1136" s="1"/>
-      <c r="D1136" s="53"/>
+      <c r="D1136" s="52"/>
       <c r="E1136" s="29"/>
       <c r="F1136" s="1"/>
-      <c r="G1136" s="51"/>
-      <c r="H1136" s="51"/>
+      <c r="G1136" s="52"/>
+      <c r="H1136" s="52"/>
       <c r="I1136" s="1"/>
       <c r="J1136" s="1"/>
       <c r="K1136" s="1"/>
@@ -33364,11 +33364,11 @@
       <c r="A1137" s="29"/>
       <c r="B1137" s="1"/>
       <c r="C1137" s="1"/>
-      <c r="D1137" s="53"/>
+      <c r="D1137" s="52"/>
       <c r="E1137" s="29"/>
       <c r="F1137" s="1"/>
-      <c r="G1137" s="51"/>
-      <c r="H1137" s="51"/>
+      <c r="G1137" s="52"/>
+      <c r="H1137" s="52"/>
       <c r="I1137" s="1"/>
       <c r="J1137" s="1"/>
       <c r="K1137" s="1"/>
@@ -33391,11 +33391,11 @@
       <c r="A1138" s="29"/>
       <c r="B1138" s="1"/>
       <c r="C1138" s="1"/>
-      <c r="D1138" s="53"/>
+      <c r="D1138" s="52"/>
       <c r="E1138" s="29"/>
       <c r="F1138" s="1"/>
-      <c r="G1138" s="51"/>
-      <c r="H1138" s="51"/>
+      <c r="G1138" s="52"/>
+      <c r="H1138" s="52"/>
       <c r="I1138" s="1"/>
       <c r="J1138" s="1"/>
       <c r="K1138" s="1"/>
@@ -33418,11 +33418,11 @@
       <c r="A1139" s="29"/>
       <c r="B1139" s="1"/>
       <c r="C1139" s="1"/>
-      <c r="D1139" s="53"/>
+      <c r="D1139" s="52"/>
       <c r="E1139" s="29"/>
       <c r="F1139" s="1"/>
-      <c r="G1139" s="51"/>
-      <c r="H1139" s="51"/>
+      <c r="G1139" s="52"/>
+      <c r="H1139" s="52"/>
       <c r="I1139" s="1"/>
       <c r="J1139" s="1"/>
       <c r="K1139" s="1"/>
@@ -33445,11 +33445,11 @@
       <c r="A1140" s="29"/>
       <c r="B1140" s="1"/>
       <c r="C1140" s="1"/>
-      <c r="D1140" s="53"/>
+      <c r="D1140" s="52"/>
       <c r="E1140" s="29"/>
       <c r="F1140" s="1"/>
-      <c r="G1140" s="51"/>
-      <c r="H1140" s="51"/>
+      <c r="G1140" s="52"/>
+      <c r="H1140" s="52"/>
       <c r="I1140" s="1"/>
       <c r="J1140" s="1"/>
       <c r="K1140" s="1"/>
@@ -33472,11 +33472,11 @@
       <c r="A1141" s="29"/>
       <c r="B1141" s="1"/>
       <c r="C1141" s="1"/>
-      <c r="D1141" s="53"/>
+      <c r="D1141" s="52"/>
       <c r="E1141" s="29"/>
       <c r="F1141" s="1"/>
-      <c r="G1141" s="51"/>
-      <c r="H1141" s="51"/>
+      <c r="G1141" s="52"/>
+      <c r="H1141" s="52"/>
       <c r="I1141" s="1"/>
       <c r="J1141" s="1"/>
       <c r="K1141" s="1"/>
@@ -33499,11 +33499,11 @@
       <c r="A1142" s="29"/>
       <c r="B1142" s="1"/>
       <c r="C1142" s="1"/>
-      <c r="D1142" s="53"/>
+      <c r="D1142" s="52"/>
       <c r="E1142" s="29"/>
       <c r="F1142" s="1"/>
-      <c r="G1142" s="51"/>
-      <c r="H1142" s="51"/>
+      <c r="G1142" s="52"/>
+      <c r="H1142" s="52"/>
       <c r="I1142" s="1"/>
       <c r="J1142" s="1"/>
       <c r="K1142" s="1"/>
@@ -33526,11 +33526,11 @@
       <c r="A1143" s="29"/>
       <c r="B1143" s="1"/>
       <c r="C1143" s="1"/>
-      <c r="D1143" s="53"/>
+      <c r="D1143" s="52"/>
       <c r="E1143" s="29"/>
       <c r="F1143" s="1"/>
-      <c r="G1143" s="51"/>
-      <c r="H1143" s="51"/>
+      <c r="G1143" s="52"/>
+      <c r="H1143" s="52"/>
       <c r="I1143" s="1"/>
       <c r="J1143" s="1"/>
       <c r="K1143" s="1"/>
@@ -33553,11 +33553,11 @@
       <c r="A1144" s="29"/>
       <c r="B1144" s="1"/>
       <c r="C1144" s="1"/>
-      <c r="D1144" s="53"/>
+      <c r="D1144" s="52"/>
       <c r="E1144" s="29"/>
       <c r="F1144" s="1"/>
-      <c r="G1144" s="51"/>
-      <c r="H1144" s="51"/>
+      <c r="G1144" s="52"/>
+      <c r="H1144" s="52"/>
       <c r="I1144" s="1"/>
       <c r="J1144" s="1"/>
       <c r="K1144" s="1"/>
@@ -33580,11 +33580,11 @@
       <c r="A1145" s="29"/>
       <c r="B1145" s="1"/>
       <c r="C1145" s="1"/>
-      <c r="D1145" s="53"/>
+      <c r="D1145" s="52"/>
       <c r="E1145" s="29"/>
       <c r="F1145" s="1"/>
-      <c r="G1145" s="51"/>
-      <c r="H1145" s="51"/>
+      <c r="G1145" s="52"/>
+      <c r="H1145" s="52"/>
       <c r="I1145" s="1"/>
       <c r="J1145" s="1"/>
       <c r="K1145" s="1"/>
@@ -33607,11 +33607,11 @@
       <c r="A1146" s="29"/>
       <c r="B1146" s="1"/>
       <c r="C1146" s="1"/>
-      <c r="D1146" s="53"/>
+      <c r="D1146" s="52"/>
       <c r="E1146" s="29"/>
       <c r="F1146" s="1"/>
-      <c r="G1146" s="51"/>
-      <c r="H1146" s="51"/>
+      <c r="G1146" s="52"/>
+      <c r="H1146" s="52"/>
       <c r="I1146" s="1"/>
       <c r="J1146" s="1"/>
       <c r="K1146" s="1"/>
@@ -33634,11 +33634,11 @@
       <c r="A1147" s="29"/>
       <c r="B1147" s="1"/>
       <c r="C1147" s="1"/>
-      <c r="D1147" s="53"/>
+      <c r="D1147" s="52"/>
       <c r="E1147" s="29"/>
       <c r="F1147" s="1"/>
-      <c r="G1147" s="51"/>
-      <c r="H1147" s="51"/>
+      <c r="G1147" s="52"/>
+      <c r="H1147" s="52"/>
       <c r="I1147" s="1"/>
       <c r="J1147" s="1"/>
       <c r="K1147" s="1"/>
@@ -33661,11 +33661,11 @@
       <c r="A1148" s="29"/>
       <c r="B1148" s="1"/>
       <c r="C1148" s="1"/>
-      <c r="D1148" s="53"/>
+      <c r="D1148" s="52"/>
       <c r="E1148" s="29"/>
       <c r="F1148" s="1"/>
-      <c r="G1148" s="51"/>
-      <c r="H1148" s="51"/>
+      <c r="G1148" s="52"/>
+      <c r="H1148" s="52"/>
       <c r="I1148" s="1"/>
       <c r="J1148" s="1"/>
       <c r="K1148" s="1"/>
@@ -33688,11 +33688,11 @@
       <c r="A1149" s="29"/>
       <c r="B1149" s="1"/>
       <c r="C1149" s="1"/>
-      <c r="D1149" s="53"/>
+      <c r="D1149" s="52"/>
       <c r="E1149" s="29"/>
       <c r="F1149" s="1"/>
-      <c r="G1149" s="51"/>
-      <c r="H1149" s="51"/>
+      <c r="G1149" s="52"/>
+      <c r="H1149" s="52"/>
       <c r="I1149" s="1"/>
       <c r="J1149" s="1"/>
       <c r="K1149" s="1"/>
@@ -33715,11 +33715,11 @@
       <c r="A1150" s="29"/>
       <c r="B1150" s="1"/>
       <c r="C1150" s="1"/>
-      <c r="D1150" s="53"/>
+      <c r="D1150" s="52"/>
       <c r="E1150" s="29"/>
       <c r="F1150" s="1"/>
-      <c r="G1150" s="51"/>
-      <c r="H1150" s="51"/>
+      <c r="G1150" s="52"/>
+      <c r="H1150" s="52"/>
       <c r="I1150" s="1"/>
       <c r="J1150" s="1"/>
       <c r="K1150" s="1"/>
@@ -33742,11 +33742,11 @@
       <c r="A1151" s="29"/>
       <c r="B1151" s="1"/>
       <c r="C1151" s="1"/>
-      <c r="D1151" s="53"/>
+      <c r="D1151" s="52"/>
       <c r="E1151" s="29"/>
       <c r="F1151" s="1"/>
-      <c r="G1151" s="51"/>
-      <c r="H1151" s="51"/>
+      <c r="G1151" s="52"/>
+      <c r="H1151" s="52"/>
       <c r="I1151" s="1"/>
       <c r="J1151" s="1"/>
       <c r="K1151" s="1"/>
@@ -33769,11 +33769,11 @@
       <c r="A1152" s="29"/>
       <c r="B1152" s="1"/>
       <c r="C1152" s="1"/>
-      <c r="D1152" s="53"/>
+      <c r="D1152" s="52"/>
       <c r="E1152" s="29"/>
       <c r="F1152" s="1"/>
-      <c r="G1152" s="51"/>
-      <c r="H1152" s="51"/>
+      <c r="G1152" s="52"/>
+      <c r="H1152" s="52"/>
       <c r="I1152" s="1"/>
       <c r="J1152" s="1"/>
       <c r="K1152" s="1"/>
@@ -33796,11 +33796,11 @@
       <c r="A1153" s="29"/>
       <c r="B1153" s="1"/>
       <c r="C1153" s="1"/>
-      <c r="D1153" s="53"/>
+      <c r="D1153" s="52"/>
       <c r="E1153" s="29"/>
       <c r="F1153" s="1"/>
-      <c r="G1153" s="51"/>
-      <c r="H1153" s="51"/>
+      <c r="G1153" s="52"/>
+      <c r="H1153" s="52"/>
       <c r="I1153" s="1"/>
       <c r="J1153" s="1"/>
       <c r="K1153" s="1"/>
@@ -33823,11 +33823,11 @@
       <c r="A1154" s="29"/>
       <c r="B1154" s="1"/>
       <c r="C1154" s="1"/>
-      <c r="D1154" s="53"/>
+      <c r="D1154" s="52"/>
       <c r="E1154" s="29"/>
       <c r="F1154" s="1"/>
-      <c r="G1154" s="51"/>
-      <c r="H1154" s="51"/>
+      <c r="G1154" s="52"/>
+      <c r="H1154" s="52"/>
       <c r="I1154" s="1"/>
       <c r="J1154" s="1"/>
       <c r="K1154" s="1"/>
@@ -33850,11 +33850,11 @@
       <c r="A1155" s="29"/>
       <c r="B1155" s="1"/>
       <c r="C1155" s="1"/>
-      <c r="D1155" s="53"/>
+      <c r="D1155" s="52"/>
       <c r="E1155" s="29"/>
       <c r="F1155" s="1"/>
-      <c r="G1155" s="51"/>
-      <c r="H1155" s="51"/>
+      <c r="G1155" s="52"/>
+      <c r="H1155" s="52"/>
       <c r="I1155" s="1"/>
       <c r="J1155" s="1"/>
       <c r="K1155" s="1"/>
@@ -33877,11 +33877,11 @@
       <c r="A1156" s="29"/>
       <c r="B1156" s="1"/>
       <c r="C1156" s="1"/>
-      <c r="D1156" s="53"/>
+      <c r="D1156" s="52"/>
       <c r="E1156" s="29"/>
       <c r="F1156" s="1"/>
-      <c r="G1156" s="51"/>
-      <c r="H1156" s="51"/>
+      <c r="G1156" s="52"/>
+      <c r="H1156" s="52"/>
       <c r="I1156" s="1"/>
       <c r="J1156" s="1"/>
       <c r="K1156" s="1"/>
@@ -33904,11 +33904,11 @@
       <c r="A1157" s="29"/>
       <c r="B1157" s="1"/>
       <c r="C1157" s="1"/>
-      <c r="D1157" s="53"/>
+      <c r="D1157" s="52"/>
       <c r="E1157" s="29"/>
       <c r="F1157" s="1"/>
-      <c r="G1157" s="51"/>
-      <c r="H1157" s="51"/>
+      <c r="G1157" s="52"/>
+      <c r="H1157" s="52"/>
       <c r="I1157" s="1"/>
       <c r="J1157" s="1"/>
       <c r="K1157" s="1"/>
@@ -33931,11 +33931,11 @@
       <c r="A1158" s="29"/>
       <c r="B1158" s="1"/>
       <c r="C1158" s="1"/>
-      <c r="D1158" s="53"/>
+      <c r="D1158" s="52"/>
       <c r="E1158" s="29"/>
       <c r="F1158" s="1"/>
-      <c r="G1158" s="51"/>
-      <c r="H1158" s="51"/>
+      <c r="G1158" s="52"/>
+      <c r="H1158" s="52"/>
       <c r="I1158" s="1"/>
       <c r="J1158" s="1"/>
       <c r="K1158" s="1"/>
@@ -33958,11 +33958,11 @@
       <c r="A1159" s="29"/>
       <c r="B1159" s="1"/>
       <c r="C1159" s="1"/>
-      <c r="D1159" s="53"/>
+      <c r="D1159" s="52"/>
       <c r="E1159" s="29"/>
       <c r="F1159" s="1"/>
-      <c r="G1159" s="51"/>
-      <c r="H1159" s="51"/>
+      <c r="G1159" s="52"/>
+      <c r="H1159" s="52"/>
       <c r="I1159" s="1"/>
       <c r="J1159" s="1"/>
       <c r="K1159" s="1"/>
@@ -33985,11 +33985,11 @@
       <c r="A1160" s="29"/>
       <c r="B1160" s="1"/>
       <c r="C1160" s="1"/>
-      <c r="D1160" s="53"/>
+      <c r="D1160" s="52"/>
       <c r="E1160" s="29"/>
       <c r="F1160" s="1"/>
-      <c r="G1160" s="51"/>
-      <c r="H1160" s="51"/>
+      <c r="G1160" s="52"/>
+      <c r="H1160" s="52"/>
       <c r="I1160" s="1"/>
       <c r="J1160" s="1"/>
       <c r="K1160" s="1"/>
@@ -34012,11 +34012,11 @@
       <c r="A1161" s="29"/>
       <c r="B1161" s="1"/>
       <c r="C1161" s="1"/>
-      <c r="D1161" s="53"/>
+      <c r="D1161" s="52"/>
       <c r="E1161" s="29"/>
       <c r="F1161" s="1"/>
-      <c r="G1161" s="51"/>
-      <c r="H1161" s="51"/>
+      <c r="G1161" s="52"/>
+      <c r="H1161" s="52"/>
       <c r="I1161" s="1"/>
       <c r="J1161" s="1"/>
       <c r="K1161" s="1"/>
@@ -34039,11 +34039,11 @@
       <c r="A1162" s="29"/>
       <c r="B1162" s="1"/>
       <c r="C1162" s="1"/>
-      <c r="D1162" s="53"/>
+      <c r="D1162" s="52"/>
       <c r="E1162" s="29"/>
       <c r="F1162" s="1"/>
-      <c r="G1162" s="51"/>
-      <c r="H1162" s="51"/>
+      <c r="G1162" s="52"/>
+      <c r="H1162" s="52"/>
       <c r="I1162" s="1"/>
       <c r="J1162" s="1"/>
       <c r="K1162" s="1"/>
@@ -34066,11 +34066,11 @@
       <c r="A1163" s="29"/>
       <c r="B1163" s="1"/>
       <c r="C1163" s="1"/>
-      <c r="D1163" s="53"/>
+      <c r="D1163" s="52"/>
       <c r="E1163" s="29"/>
       <c r="F1163" s="1"/>
-      <c r="G1163" s="51"/>
-      <c r="H1163" s="51"/>
+      <c r="G1163" s="52"/>
+      <c r="H1163" s="52"/>
       <c r="I1163" s="1"/>
       <c r="J1163" s="1"/>
       <c r="K1163" s="1"/>
@@ -34093,11 +34093,11 @@
       <c r="A1164" s="29"/>
       <c r="B1164" s="1"/>
       <c r="C1164" s="1"/>
-      <c r="D1164" s="53"/>
+      <c r="D1164" s="52"/>
       <c r="E1164" s="29"/>
       <c r="F1164" s="1"/>
-      <c r="G1164" s="51"/>
-      <c r="H1164" s="51"/>
+      <c r="G1164" s="52"/>
+      <c r="H1164" s="52"/>
       <c r="I1164" s="1"/>
       <c r="J1164" s="1"/>
       <c r="K1164" s="1"/>
@@ -34120,11 +34120,11 @@
       <c r="A1165" s="29"/>
       <c r="B1165" s="1"/>
       <c r="C1165" s="1"/>
-      <c r="D1165" s="53"/>
+      <c r="D1165" s="52"/>
       <c r="E1165" s="29"/>
       <c r="F1165" s="1"/>
-      <c r="G1165" s="51"/>
-      <c r="H1165" s="51"/>
+      <c r="G1165" s="52"/>
+      <c r="H1165" s="52"/>
       <c r="I1165" s="1"/>
       <c r="J1165" s="1"/>
       <c r="K1165" s="1"/>
@@ -34147,11 +34147,11 @@
       <c r="A1166" s="29"/>
       <c r="B1166" s="1"/>
       <c r="C1166" s="1"/>
-      <c r="D1166" s="53"/>
+      <c r="D1166" s="52"/>
       <c r="E1166" s="29"/>
       <c r="F1166" s="1"/>
-      <c r="G1166" s="51"/>
-      <c r="H1166" s="51"/>
+      <c r="G1166" s="52"/>
+      <c r="H1166" s="52"/>
       <c r="I1166" s="1"/>
       <c r="J1166" s="1"/>
       <c r="K1166" s="1"/>
@@ -34174,11 +34174,11 @@
       <c r="A1167" s="29"/>
       <c r="B1167" s="1"/>
       <c r="C1167" s="1"/>
-      <c r="D1167" s="53"/>
+      <c r="D1167" s="52"/>
       <c r="E1167" s="29"/>
       <c r="F1167" s="1"/>
-      <c r="G1167" s="51"/>
-      <c r="H1167" s="51"/>
+      <c r="G1167" s="52"/>
+      <c r="H1167" s="52"/>
       <c r="I1167" s="1"/>
       <c r="J1167" s="1"/>
       <c r="K1167" s="1"/>
@@ -34201,11 +34201,11 @@
       <c r="A1168" s="29"/>
       <c r="B1168" s="1"/>
       <c r="C1168" s="1"/>
-      <c r="D1168" s="53"/>
+      <c r="D1168" s="52"/>
       <c r="E1168" s="29"/>
       <c r="F1168" s="1"/>
-      <c r="G1168" s="51"/>
-      <c r="H1168" s="51"/>
+      <c r="G1168" s="52"/>
+      <c r="H1168" s="52"/>
       <c r="I1168" s="1"/>
       <c r="J1168" s="1"/>
       <c r="K1168" s="1"/>
@@ -34228,11 +34228,11 @@
       <c r="A1169" s="29"/>
       <c r="B1169" s="1"/>
       <c r="C1169" s="1"/>
-      <c r="D1169" s="53"/>
+      <c r="D1169" s="52"/>
       <c r="E1169" s="29"/>
       <c r="F1169" s="1"/>
-      <c r="G1169" s="51"/>
-      <c r="H1169" s="51"/>
+      <c r="G1169" s="52"/>
+      <c r="H1169" s="52"/>
       <c r="I1169" s="1"/>
       <c r="J1169" s="1"/>
       <c r="K1169" s="1"/>
@@ -34255,11 +34255,11 @@
       <c r="A1170" s="29"/>
       <c r="B1170" s="1"/>
       <c r="C1170" s="1"/>
-      <c r="D1170" s="53"/>
+      <c r="D1170" s="52"/>
       <c r="E1170" s="29"/>
       <c r="F1170" s="1"/>
-      <c r="G1170" s="51"/>
-      <c r="H1170" s="51"/>
+      <c r="G1170" s="52"/>
+      <c r="H1170" s="52"/>
       <c r="I1170" s="1"/>
       <c r="J1170" s="1"/>
       <c r="K1170" s="1"/>
@@ -34282,11 +34282,11 @@
       <c r="A1171" s="29"/>
       <c r="B1171" s="1"/>
       <c r="C1171" s="1"/>
-      <c r="D1171" s="53"/>
+      <c r="D1171" s="52"/>
       <c r="E1171" s="29"/>
       <c r="F1171" s="1"/>
-      <c r="G1171" s="51"/>
-      <c r="H1171" s="51"/>
+      <c r="G1171" s="52"/>
+      <c r="H1171" s="52"/>
       <c r="I1171" s="1"/>
       <c r="J1171" s="1"/>
       <c r="K1171" s="1"/>
@@ -34309,11 +34309,11 @@
       <c r="A1172" s="29"/>
       <c r="B1172" s="1"/>
       <c r="C1172" s="1"/>
-      <c r="D1172" s="53"/>
+      <c r="D1172" s="52"/>
       <c r="E1172" s="29"/>
       <c r="F1172" s="1"/>
-      <c r="G1172" s="51"/>
-      <c r="H1172" s="51"/>
+      <c r="G1172" s="52"/>
+      <c r="H1172" s="52"/>
       <c r="I1172" s="1"/>
       <c r="J1172" s="1"/>
       <c r="K1172" s="1"/>
@@ -34336,11 +34336,11 @@
       <c r="A1173" s="29"/>
       <c r="B1173" s="1"/>
       <c r="C1173" s="1"/>
-      <c r="D1173" s="53"/>
+      <c r="D1173" s="52"/>
       <c r="E1173" s="29"/>
       <c r="F1173" s="1"/>
-      <c r="G1173" s="51"/>
-      <c r="H1173" s="51"/>
+      <c r="G1173" s="52"/>
+      <c r="H1173" s="52"/>
       <c r="I1173" s="1"/>
       <c r="J1173" s="1"/>
       <c r="K1173" s="1"/>
@@ -34363,11 +34363,11 @@
       <c r="A1174" s="29"/>
       <c r="B1174" s="1"/>
       <c r="C1174" s="1"/>
-      <c r="D1174" s="53"/>
+      <c r="D1174" s="52"/>
       <c r="E1174" s="29"/>
       <c r="F1174" s="1"/>
-      <c r="G1174" s="51"/>
-      <c r="H1174" s="51"/>
+      <c r="G1174" s="52"/>
+      <c r="H1174" s="52"/>
       <c r="I1174" s="1"/>
       <c r="J1174" s="1"/>
       <c r="K1174" s="1"/>
@@ -34390,11 +34390,11 @@
       <c r="A1175" s="29"/>
       <c r="B1175" s="1"/>
       <c r="C1175" s="1"/>
-      <c r="D1175" s="53"/>
+      <c r="D1175" s="52"/>
       <c r="E1175" s="29"/>
       <c r="F1175" s="1"/>
-      <c r="G1175" s="51"/>
-      <c r="H1175" s="51"/>
+      <c r="G1175" s="52"/>
+      <c r="H1175" s="52"/>
       <c r="I1175" s="1"/>
       <c r="J1175" s="1"/>
       <c r="K1175" s="1"/>
@@ -34417,11 +34417,11 @@
       <c r="A1176" s="29"/>
       <c r="B1176" s="1"/>
       <c r="C1176" s="1"/>
-      <c r="D1176" s="53"/>
+      <c r="D1176" s="52"/>
       <c r="E1176" s="29"/>
       <c r="F1176" s="1"/>
-      <c r="G1176" s="51"/>
-      <c r="H1176" s="51"/>
+      <c r="G1176" s="52"/>
+      <c r="H1176" s="52"/>
       <c r="I1176" s="1"/>
       <c r="J1176" s="1"/>
       <c r="K1176" s="1"/>
@@ -34444,11 +34444,11 @@
       <c r="A1177" s="29"/>
       <c r="B1177" s="1"/>
       <c r="C1177" s="1"/>
-      <c r="D1177" s="53"/>
+      <c r="D1177" s="52"/>
       <c r="E1177" s="29"/>
       <c r="F1177" s="1"/>
-      <c r="G1177" s="51"/>
-      <c r="H1177" s="51"/>
+      <c r="G1177" s="52"/>
+      <c r="H1177" s="52"/>
       <c r="I1177" s="1"/>
       <c r="J1177" s="1"/>
       <c r="K1177" s="1"/>
@@ -34471,11 +34471,11 @@
       <c r="A1178" s="29"/>
       <c r="B1178" s="1"/>
       <c r="C1178" s="1"/>
-      <c r="D1178" s="53"/>
+      <c r="D1178" s="52"/>
       <c r="E1178" s="29"/>
       <c r="F1178" s="1"/>
-      <c r="G1178" s="51"/>
-      <c r="H1178" s="51"/>
+      <c r="G1178" s="52"/>
+      <c r="H1178" s="52"/>
       <c r="I1178" s="1"/>
       <c r="J1178" s="1"/>
       <c r="K1178" s="1"/>
@@ -34498,11 +34498,11 @@
       <c r="A1179" s="29"/>
       <c r="B1179" s="1"/>
       <c r="C1179" s="1"/>
-      <c r="D1179" s="53"/>
+      <c r="D1179" s="52"/>
       <c r="E1179" s="29"/>
       <c r="F1179" s="1"/>
-      <c r="G1179" s="51"/>
-      <c r="H1179" s="51"/>
+      <c r="G1179" s="52"/>
+      <c r="H1179" s="52"/>
       <c r="I1179" s="1"/>
       <c r="J1179" s="1"/>
       <c r="K1179" s="1"/>
@@ -34525,11 +34525,11 @@
       <c r="A1180" s="29"/>
       <c r="B1180" s="1"/>
       <c r="C1180" s="1"/>
-      <c r="D1180" s="53"/>
+      <c r="D1180" s="52"/>
       <c r="E1180" s="29"/>
       <c r="F1180" s="1"/>
-      <c r="G1180" s="51"/>
-      <c r="H1180" s="51"/>
+      <c r="G1180" s="52"/>
+      <c r="H1180" s="52"/>
       <c r="I1180" s="1"/>
       <c r="J1180" s="1"/>
       <c r="K1180" s="1"/>
@@ -34552,11 +34552,11 @@
       <c r="A1181" s="29"/>
       <c r="B1181" s="1"/>
       <c r="C1181" s="1"/>
-      <c r="D1181" s="53"/>
+      <c r="D1181" s="52"/>
       <c r="E1181" s="29"/>
       <c r="F1181" s="1"/>
-      <c r="G1181" s="51"/>
-      <c r="H1181" s="51"/>
+      <c r="G1181" s="52"/>
+      <c r="H1181" s="52"/>
       <c r="I1181" s="1"/>
       <c r="J1181" s="1"/>
       <c r="K1181" s="1"/>
@@ -34579,11 +34579,11 @@
       <c r="A1182" s="29"/>
       <c r="B1182" s="1"/>
       <c r="C1182" s="1"/>
-      <c r="D1182" s="53"/>
+      <c r="D1182" s="52"/>
       <c r="E1182" s="29"/>
       <c r="F1182" s="1"/>
-      <c r="G1182" s="51"/>
-      <c r="H1182" s="51"/>
+      <c r="G1182" s="52"/>
+      <c r="H1182" s="52"/>
       <c r="I1182" s="1"/>
       <c r="J1182" s="1"/>
       <c r="K1182" s="1"/>
@@ -34606,11 +34606,11 @@
       <c r="A1183" s="29"/>
       <c r="B1183" s="1"/>
       <c r="C1183" s="1"/>
-      <c r="D1183" s="53"/>
+      <c r="D1183" s="52"/>
       <c r="E1183" s="29"/>
       <c r="F1183" s="1"/>
-      <c r="G1183" s="51"/>
-      <c r="H1183" s="51"/>
+      <c r="G1183" s="52"/>
+      <c r="H1183" s="52"/>
       <c r="I1183" s="1"/>
       <c r="J1183" s="1"/>
       <c r="K1183" s="1"/>
@@ -34633,11 +34633,11 @@
       <c r="A1184" s="29"/>
       <c r="B1184" s="1"/>
       <c r="C1184" s="1"/>
-      <c r="D1184" s="53"/>
+      <c r="D1184" s="52"/>
       <c r="E1184" s="29"/>
       <c r="F1184" s="1"/>
-      <c r="G1184" s="51"/>
-      <c r="H1184" s="51"/>
+      <c r="G1184" s="52"/>
+      <c r="H1184" s="52"/>
       <c r="I1184" s="1"/>
       <c r="J1184" s="1"/>
       <c r="K1184" s="1"/>
@@ -34660,11 +34660,11 @@
       <c r="A1185" s="29"/>
       <c r="B1185" s="1"/>
       <c r="C1185" s="1"/>
-      <c r="D1185" s="53"/>
+      <c r="D1185" s="52"/>
       <c r="E1185" s="29"/>
       <c r="F1185" s="1"/>
-      <c r="G1185" s="51"/>
-      <c r="H1185" s="51"/>
+      <c r="G1185" s="52"/>
+      <c r="H1185" s="52"/>
       <c r="I1185" s="1"/>
       <c r="J1185" s="1"/>
       <c r="K1185" s="1"/>
@@ -34687,11 +34687,11 @@
       <c r="A1186" s="29"/>
       <c r="B1186" s="1"/>
       <c r="C1186" s="1"/>
-      <c r="D1186" s="53"/>
+      <c r="D1186" s="52"/>
       <c r="E1186" s="29"/>
       <c r="F1186" s="1"/>
-      <c r="G1186" s="51"/>
-      <c r="H1186" s="51"/>
+      <c r="G1186" s="52"/>
+      <c r="H1186" s="52"/>
       <c r="I1186" s="1"/>
       <c r="J1186" s="1"/>
       <c r="K1186" s="1"/>
@@ -34714,11 +34714,11 @@
       <c r="A1187" s="29"/>
       <c r="B1187" s="1"/>
       <c r="C1187" s="1"/>
-      <c r="D1187" s="53"/>
+      <c r="D1187" s="52"/>
       <c r="E1187" s="29"/>
       <c r="F1187" s="1"/>
-      <c r="G1187" s="51"/>
-      <c r="H1187" s="51"/>
+      <c r="G1187" s="52"/>
+      <c r="H1187" s="52"/>
       <c r="I1187" s="1"/>
       <c r="J1187" s="1"/>
       <c r="K1187" s="1"/>
@@ -34741,11 +34741,11 @@
       <c r="A1188" s="29"/>
       <c r="B1188" s="1"/>
       <c r="C1188" s="1"/>
-      <c r="D1188" s="53"/>
+      <c r="D1188" s="52"/>
       <c r="E1188" s="29"/>
       <c r="F1188" s="1"/>
-      <c r="G1188" s="51"/>
-      <c r="H1188" s="51"/>
+      <c r="G1188" s="52"/>
+      <c r="H1188" s="52"/>
       <c r="I1188" s="1"/>
       <c r="J1188" s="1"/>
       <c r="K1188" s="1"/>
@@ -34768,11 +34768,11 @@
       <c r="A1189" s="29"/>
       <c r="B1189" s="1"/>
       <c r="C1189" s="1"/>
-      <c r="D1189" s="53"/>
+      <c r="D1189" s="52"/>
       <c r="E1189" s="29"/>
       <c r="F1189" s="1"/>
-      <c r="G1189" s="51"/>
-      <c r="H1189" s="51"/>
+      <c r="G1189" s="52"/>
+      <c r="H1189" s="52"/>
       <c r="I1189" s="1"/>
       <c r="J1189" s="1"/>
       <c r="K1189" s="1"/>
@@ -34795,11 +34795,11 @@
       <c r="A1190" s="29"/>
       <c r="B1190" s="1"/>
       <c r="C1190" s="1"/>
-      <c r="D1190" s="53"/>
+      <c r="D1190" s="52"/>
       <c r="E1190" s="29"/>
       <c r="F1190" s="1"/>
-      <c r="G1190" s="51"/>
-      <c r="H1190" s="51"/>
+      <c r="G1190" s="52"/>
+      <c r="H1190" s="52"/>
       <c r="I1190" s="1"/>
       <c r="J1190" s="1"/>
       <c r="K1190" s="1"/>
@@ -34822,11 +34822,11 @@
       <c r="A1191" s="29"/>
       <c r="B1191" s="1"/>
       <c r="C1191" s="1"/>
-      <c r="D1191" s="53"/>
+      <c r="D1191" s="52"/>
       <c r="E1191" s="29"/>
       <c r="F1191" s="1"/>
-      <c r="G1191" s="51"/>
-      <c r="H1191" s="51"/>
+      <c r="G1191" s="52"/>
+      <c r="H1191" s="52"/>
       <c r="I1191" s="1"/>
       <c r="J1191" s="1"/>
       <c r="K1191" s="1"/>
@@ -34849,11 +34849,11 @@
       <c r="A1192" s="29"/>
       <c r="B1192" s="1"/>
       <c r="C1192" s="1"/>
-      <c r="D1192" s="53"/>
+      <c r="D1192" s="52"/>
       <c r="E1192" s="29"/>
       <c r="F1192" s="1"/>
-      <c r="G1192" s="51"/>
-      <c r="H1192" s="51"/>
+      <c r="G1192" s="52"/>
+      <c r="H1192" s="52"/>
       <c r="I1192" s="1"/>
       <c r="J1192" s="1"/>
       <c r="K1192" s="1"/>
@@ -34876,11 +34876,11 @@
       <c r="A1193" s="29"/>
       <c r="B1193" s="1"/>
       <c r="C1193" s="1"/>
-      <c r="D1193" s="53"/>
+      <c r="D1193" s="52"/>
       <c r="E1193" s="29"/>
       <c r="F1193" s="1"/>
-      <c r="G1193" s="51"/>
-      <c r="H1193" s="51"/>
+      <c r="G1193" s="52"/>
+      <c r="H1193" s="52"/>
       <c r="I1193" s="1"/>
       <c r="J1193" s="1"/>
       <c r="K1193" s="1"/>
@@ -34903,11 +34903,11 @@
       <c r="A1194" s="29"/>
       <c r="B1194" s="1"/>
       <c r="C1194" s="1"/>
-      <c r="D1194" s="53"/>
+      <c r="D1194" s="52"/>
       <c r="E1194" s="29"/>
       <c r="F1194" s="1"/>
-      <c r="G1194" s="51"/>
-      <c r="H1194" s="51"/>
+      <c r="G1194" s="52"/>
+      <c r="H1194" s="52"/>
       <c r="I1194" s="1"/>
       <c r="J1194" s="1"/>
       <c r="K1194" s="1"/>
@@ -34930,11 +34930,11 @@
       <c r="A1195" s="29"/>
       <c r="B1195" s="1"/>
       <c r="C1195" s="1"/>
-      <c r="D1195" s="53"/>
+      <c r="D1195" s="52"/>
       <c r="E1195" s="29"/>
       <c r="F1195" s="1"/>
-      <c r="G1195" s="51"/>
-      <c r="H1195" s="51"/>
+      <c r="G1195" s="52"/>
+      <c r="H1195" s="52"/>
       <c r="I1195" s="1"/>
       <c r="J1195" s="1"/>
       <c r="K1195" s="1"/>
@@ -34957,11 +34957,11 @@
       <c r="A1196" s="29"/>
       <c r="B1196" s="1"/>
       <c r="C1196" s="1"/>
-      <c r="D1196" s="53"/>
+      <c r="D1196" s="52"/>
       <c r="E1196" s="29"/>
       <c r="F1196" s="1"/>
-      <c r="G1196" s="51"/>
-      <c r="H1196" s="51"/>
+      <c r="G1196" s="52"/>
+      <c r="H1196" s="52"/>
       <c r="I1196" s="1"/>
       <c r="J1196" s="1"/>
       <c r="K1196" s="1"/>
@@ -34984,11 +34984,11 @@
       <c r="A1197" s="29"/>
       <c r="B1197" s="1"/>
       <c r="C1197" s="1"/>
-      <c r="D1197" s="53"/>
+      <c r="D1197" s="52"/>
       <c r="E1197" s="29"/>
       <c r="F1197" s="1"/>
-      <c r="G1197" s="51"/>
-      <c r="H1197" s="51"/>
+      <c r="G1197" s="52"/>
+      <c r="H1197" s="52"/>
       <c r="I1197" s="1"/>
       <c r="J1197" s="1"/>
       <c r="K1197" s="1"/>
@@ -35034,10 +35034,10 @@
     <col min="2" max="2" style="6" width="51.86214285714286" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="42.14785714285715" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="28" width="21.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="49" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="50" width="19.862142857142857" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="40.71928571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="28" width="10.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="49" width="9.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="50" width="9.005" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="6" width="13.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="6" width="10.290714285714287" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="6" width="9.005" customWidth="1" bestFit="1"/>
@@ -35123,7 +35123,7 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="24.75">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="13" t="s">
@@ -35213,7 +35213,7 @@
       <c r="X4" s="1"/>
       <c r="Y4" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="24">
         <v>1</v>
       </c>
@@ -35236,7 +35236,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="38">
-        <v>69.72</v>
+        <v>83.02</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -35256,7 +35256,7 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="26"/>
       <c r="B6" s="33"/>
       <c r="C6" s="25" t="s">
@@ -35287,7 +35287,7 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="26">
         <v>2</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="38">
-        <v>32.09</v>
+        <v>40.72</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -35330,7 +35330,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="26"/>
       <c r="B8" s="33"/>
       <c r="C8" s="25" t="s">
@@ -35361,7 +35361,7 @@
       <c r="X8" s="1"/>
       <c r="Y8" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="26">
         <v>3</v>
       </c>
@@ -35384,7 +35384,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="38">
-        <v>27.02</v>
+        <v>35.04</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -35404,7 +35404,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="26"/>
       <c r="B10" s="33"/>
       <c r="C10" s="25" t="s">
@@ -35435,7 +35435,7 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="26">
         <v>4</v>
       </c>
@@ -35458,7 +35458,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="38">
-        <v>13.97</v>
+        <v>19.99</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -35478,7 +35478,7 @@
       <c r="X11" s="1"/>
       <c r="Y11" s="29"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="26"/>
       <c r="B12" s="33"/>
       <c r="C12" s="25" t="s">
@@ -35528,7 +35528,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="38">
-        <v>3.82</v>
+        <v>6.69</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -35596,7 +35596,7 @@
         <v>0.01</v>
       </c>
       <c r="H15" s="38">
-        <v>3.17</v>
+        <v>5.65</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -35662,7 +35662,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="38">
-        <v>5.87</v>
+        <v>9.53</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="10">
-        <v>61</v>
+        <v>73.96</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -35794,7 +35794,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="38">
-        <v>32.58</v>
+        <v>39.27</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
@@ -35860,7 +35860,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="38">
-        <v>19.88</v>
+        <v>27.25</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -35926,7 +35926,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="38">
-        <v>11.88</v>
+        <v>17.43</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -35992,7 +35992,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="38">
-        <v>3.15</v>
+        <v>5.77</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -36058,7 +36058,7 @@
         <v>0.01</v>
       </c>
       <c r="H29" s="38">
-        <v>2.63</v>
+        <v>4.67</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="38">
-        <v>4.9</v>
+        <v>7.92</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -36190,7 +36190,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="38">
-        <v>52.24</v>
+        <v>65.1</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -36256,7 +36256,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="38">
-        <v>28.71</v>
+        <v>34.63</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -36322,7 +36322,7 @@
         <v>0</v>
       </c>
       <c r="H37" s="38">
-        <v>23.64</v>
+        <v>29.84</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
@@ -36388,7 +36388,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="38">
-        <v>12.48</v>
+        <v>17.28</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="38">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -36520,7 +36520,7 @@
         <v>0.01</v>
       </c>
       <c r="H43" s="38">
-        <v>2.86</v>
+        <v>4.77</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
@@ -36586,7 +36586,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="38">
-        <v>5.1</v>
+        <v>8.09</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -36652,7 +36652,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="38">
-        <v>47.24</v>
+        <v>59.31</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -36718,7 +36718,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="38">
-        <v>25.94</v>
+        <v>32.14</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -36784,7 +36784,7 @@
         <v>0</v>
       </c>
       <c r="H51" s="38">
-        <v>19.06</v>
+        <v>25.49</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -36850,7 +36850,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="38">
-        <v>10.34</v>
+        <v>14.79</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="H55" s="38">
-        <v>2.61</v>
+        <v>4.63</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
@@ -36982,7 +36982,7 @@
         <v>0.01</v>
       </c>
       <c r="H57" s="38">
-        <v>2.19</v>
+        <v>3.89</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
@@ -37048,7 +37048,7 @@
         <v>0</v>
       </c>
       <c r="H59" s="10">
-        <v>4</v>
+        <v>6.57</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -37114,7 +37114,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="38">
-        <v>14.03</v>
+        <v>20.51</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -37180,7 +37180,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="38">
-        <v>7.93</v>
+        <v>10.6</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -37246,7 +37246,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="38">
-        <v>5.51</v>
+        <v>8.42</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -37312,7 +37312,7 @@
         <v>0</v>
       </c>
       <c r="H67" s="38">
-        <v>3.69</v>
+        <v>5.97</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -37378,7 +37378,7 @@
         <v>0.01</v>
       </c>
       <c r="H69" s="38">
-        <v>0.76</v>
+        <v>1.55</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -37444,7 +37444,7 @@
         <v>0.01</v>
       </c>
       <c r="H71" s="38">
-        <v>0.59</v>
+        <v>1.15</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -37510,7 +37510,7 @@
         <v>0</v>
       </c>
       <c r="H73" s="38">
-        <v>1.28</v>
+        <v>2.3</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
@@ -37576,7 +37576,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="38">
-        <v>13.56</v>
+        <v>19.12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="38">
-        <v>6.69</v>
+        <v>9.63</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -37708,7 +37708,7 @@
         <v>0</v>
       </c>
       <c r="H79" s="38">
-        <v>5.02</v>
+        <v>7.16</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="38">
-        <v>2.57</v>
+        <v>4.49</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -37840,7 +37840,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="38">
-        <v>0.54</v>
+        <v>1.02</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
@@ -37906,7 +37906,7 @@
         <v>0.01</v>
       </c>
       <c r="H85" s="38">
-        <v>0.43</v>
+        <v>1.11</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
@@ -37972,7 +37972,7 @@
         <v>0</v>
       </c>
       <c r="H87" s="38">
-        <v>0.96</v>
+        <v>3.01</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
@@ -38038,7 +38038,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="38">
-        <v>25.34</v>
+        <v>35.04</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
@@ -38104,7 +38104,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="38">
-        <v>14.94</v>
+        <v>19.4</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -38170,7 +38170,7 @@
         <v>0</v>
       </c>
       <c r="H93" s="38">
-        <v>9.12</v>
+        <v>13.16</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -38236,7 +38236,7 @@
         <v>0</v>
       </c>
       <c r="H95" s="38">
-        <v>5.18</v>
+        <v>8.13</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -38302,7 +38302,7 @@
         <v>0</v>
       </c>
       <c r="H97" s="38">
-        <v>1.29</v>
+        <v>2.63</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
@@ -38368,7 +38368,7 @@
         <v>0.01</v>
       </c>
       <c r="H99" s="38">
-        <v>1.04</v>
+        <v>1.99</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -38434,7 +38434,7 @@
         <v>0</v>
       </c>
       <c r="H101" s="38">
-        <v>2.15</v>
+        <v>3.99</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -38493,9 +38493,15 @@
       <c r="C103" s="8"/>
       <c r="D103" s="10"/>
       <c r="E103" s="38"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="38"/>
+      <c r="F103" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G103" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H103" s="38">
+        <v>19.6733</v>
+      </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -38520,7 +38526,9 @@
       <c r="C104" s="8"/>
       <c r="D104" s="10"/>
       <c r="E104" s="38"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="G104" s="10"/>
       <c r="H104" s="38"/>
       <c r="I104" s="8"/>
@@ -38547,7 +38555,9 @@
       <c r="C105" s="8"/>
       <c r="D105" s="10"/>
       <c r="E105" s="38"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="G105" s="10"/>
       <c r="H105" s="38"/>
       <c r="I105" s="8"/>
@@ -38574,7 +38584,9 @@
       <c r="C106" s="8"/>
       <c r="D106" s="10"/>
       <c r="E106" s="38"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="G106" s="10"/>
       <c r="H106" s="38"/>
       <c r="I106" s="8"/>
@@ -38601,7 +38613,9 @@
       <c r="C107" s="8"/>
       <c r="D107" s="10"/>
       <c r="E107" s="38"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="G107" s="10"/>
       <c r="H107" s="38"/>
       <c r="I107" s="8"/>
@@ -38628,7 +38642,9 @@
       <c r="C108" s="8"/>
       <c r="D108" s="10"/>
       <c r="E108" s="38"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="G108" s="10"/>
       <c r="H108" s="38"/>
       <c r="I108" s="8"/>
@@ -38655,7 +38671,9 @@
       <c r="C109" s="8"/>
       <c r="D109" s="10"/>
       <c r="E109" s="38"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="G109" s="10"/>
       <c r="H109" s="38"/>
       <c r="I109" s="8"/>
@@ -38682,7 +38700,9 @@
       <c r="C110" s="8"/>
       <c r="D110" s="10"/>
       <c r="E110" s="38"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="49" t="s">
+        <v>196</v>
+      </c>
       <c r="G110" s="10"/>
       <c r="H110" s="38"/>
       <c r="I110" s="8"/>
